--- a/Covid_19_Dataset_and_References/References/17.xlsx
+++ b/Covid_19_Dataset_and_References/References/17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="66">
   <si>
     <t>Doi</t>
   </si>
@@ -307,6 +307,36 @@
   </si>
   <si>
     <t>2021-08-08</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,  Siavash%Moradi%NULL%1,  Amir Mohammad%Shabani%NULL%1,  Farhang%Babamahmoodi%NULL%2,  Farhang%Babamahmoodi%NULL%0,  Ali Reza%Davoudi Badabi%NULL%1,  Lotfollah%Davoudi%NULL%1,  Ahmad%Alikhani%NULL%1,  Akbar%Hedayatizadeh Omran%NULL%1,  Majid%Saeedi%NULL%2,  Shahin%Merat%NULL%3,  Hannah%Wentzel%NULL%6,  Hannah%Wentzel%NULL%0,  Anna%Garratt%NULL%2,  Jacob%Levi%NULL%3,  Bryony%Simmons%NULL%3,  Andrew%Hill%NULL%4,  Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,  Sajedeh%Mousaviasl%NULL%1,  Esmat%Radmanesh%NULL%1,  Saeed%Jelvay%NULL%1,  Saeid%Bitaraf%NULL%1,  Bryony%Simmons%NULL%0,  Hannah%Wentzel%NULL%0,  Andrew%Hill%NULL%0,  Anahita%Sadeghi%NULL%1,  James%Freeman%NULL%1,  Shokrollah%Salmanzadeh%NULL%1,  Hani%Esmaeilian%NULL%1,  Morteza%Mobarak%NULL%1,  Ramin%Tabibi%NULL%1,  Amir Hosein%Jafari Kashi%NULL%1,  Zahra%Lotfi%NULL%1,  Seyed Mehdi%Talebzadeh%NULL%1,  Aseni%Wickramatillake%NULL%1,  Mahboobeh%Momtazan%NULL%1,  Majid%Hajizadeh Farsani%NULL%1,  Sedigheh%Marjani%NULL%1,  Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,  Majid%Saeedi%NULL%0,  Reza%Alizadeh-Navaei%NULL%1,  Akbar%Hedayatizadeh-Omran%NULL%1,  Shahin%Merat%NULL%0,  Hannah%Wentzel%NULL%0,  Hannah%Wentzel%NULL%0,  Jacob%Levi%NULL%0,  Andrew%Hill%NULL%0,  Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,  Hossein%Khalili%NULL%1,  Zahra%Ahmadinejad%NULL%1,  Hamid%Emadi Kouchak%NULL%1,  Sirous%Jafari%NULL%1,  Sayed Ali%Dehghan Manshadi%NULL%1,  Mehrnaz%Rasolinejad%NULL%1,  Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,  Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,  Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,  Farid%Najafi%NULL%1,  Ronak%Miladi%NULL%1,  Zeinab%Mohseni Afshar%NULL%1,  Feizollah%Mansouri%NULL%1,  Zohreh%Rahimi%NULL%1,  Maria%Shirvani%NULL%1,  Mehdi%Salimi%NULL%1,  Siavash%Vaziri%NULL%1,  Alireza%Janbakhsh%NULL%1,  Fatemeh%Khosravi Shadmani%NULL%1,  Arezoo%Bozorgomid%NULL%1,  Mohammad Hossein%Zamanian%NULL%1,  Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,  Ali%Ali Asgari%NULL%2,  Ali%Ali Asgari%NULL%0,  Alireza%Norouzi%NULL%1,  Zahedin%Kheiri%NULL%1,  Amir%Anushirvani%NULL%1,  Mahnaz%Montazeri%NULL%1,  Hadiseh%Hosamirudsai%NULL%1,  Shirin%Afhami%NULL%1,  Elham%Akbarpour%NULL%1,  Rasoul%Aliannejad%NULL%2,  Rasoul%Aliannejad%NULL%0,  Amir Reza%Radmard%NULL%1,  Amir H%Davarpanah%NULL%1,  Jacob%Levi%NULL%0,  Hannah%Wentzel%NULL%0,  Ambar%Qavi%NULL%1,  Anna%Garratt%NULL%0,  Bryony%Simmons%NULL%0,  Andrew%Hill%NULL%0,  Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,  Ehab%Kamal%NULL%2,  Ehab%Kamal%NULL%0,  Mohsen%Salama%NULL%2,  Mohsen%Salama%NULL%0,  Tary%Salman%NULL%1,  Alyaa%Sabry%NULL%1,  Wael%Abdel‐Razek%NULL%1,  Sherine%Helmy%NULL%1,  Ahmed%Abdelgwad%NULL%1,  Neamt%Sakr%NULL%1,  Mohamed%Elgazzar%NULL%1,  Mohamed%Einar%NULL%1,  Mahmoud%Farouk%NULL%1,  Mounir%Saif%NULL%1,  Ismail%Shehab%NULL%1,  Eman%El‐hosieny%NULL%1,  Mai%Mansour%NULL%1,  Doaa%Mahdi%NULL%1,  El‐Sayed%Tharwa%NULL%1,  Mostafa%Salah%NULL%1,  Ola%Elrouby%NULL%1,  Imam%Waked%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -638,6 +668,9 @@
       <c r="H1" t="s">
         <v>20</v>
       </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -653,7 +686,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -663,6 +696,9 @@
       </c>
       <c r="H2" t="s">
         <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -690,6 +726,9 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
@@ -705,7 +744,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -715,6 +754,9 @@
       </c>
       <c r="H4" t="s">
         <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -731,7 +773,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -741,6 +783,9 @@
       </c>
       <c r="H5" t="s">
         <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -757,7 +802,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -767,6 +812,9 @@
       </c>
       <c r="H6" t="s">
         <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
@@ -783,7 +831,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -793,6 +841,9 @@
       </c>
       <c r="H7" t="s">
         <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -809,7 +860,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -819,6 +870,9 @@
       </c>
       <c r="H8" t="s">
         <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -835,7 +889,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
@@ -845,6 +899,9 @@
       </c>
       <c r="H9" t="s">
         <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/17.xlsx
+++ b/Covid_19_Dataset_and_References/References/17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="94">
   <si>
     <t>Doi</t>
   </si>
@@ -337,6 +337,90 @@
   </si>
   <si>
     <t>[Sherif%Abbass%sherif533@hotmail.com%1,  Ehab%Kamal%NULL%2,  Ehab%Kamal%NULL%0,  Mohsen%Salama%NULL%2,  Mohsen%Salama%NULL%0,  Tary%Salman%NULL%1,  Alyaa%Sabry%NULL%1,  Wael%Abdel‐Razek%NULL%1,  Sherine%Helmy%NULL%1,  Ahmed%Abdelgwad%NULL%1,  Neamt%Sakr%NULL%1,  Mohamed%Elgazzar%NULL%1,  Mohamed%Einar%NULL%1,  Mahmoud%Farouk%NULL%1,  Mounir%Saif%NULL%1,  Ismail%Shehab%NULL%1,  Eman%El‐hosieny%NULL%1,  Mai%Mansour%NULL%1,  Doaa%Mahdi%NULL%1,  El‐Sayed%Tharwa%NULL%1,  Mostafa%Salah%NULL%1,  Ola%Elrouby%NULL%1,  Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,   Siavash%Moradi%NULL%1,   Amir Mohammad%Shabani%NULL%1,   Farhang%Babamahmoodi%NULL%2,   Farhang%Babamahmoodi%NULL%0,   Ali Reza%Davoudi Badabi%NULL%1,   Lotfollah%Davoudi%NULL%1,   Ahmad%Alikhani%NULL%1,   Akbar%Hedayatizadeh Omran%NULL%1,   Majid%Saeedi%NULL%2,   Shahin%Merat%NULL%3,   Hannah%Wentzel%NULL%6,   Hannah%Wentzel%NULL%0,   Anna%Garratt%NULL%2,   Jacob%Levi%NULL%3,   Bryony%Simmons%NULL%3,   Andrew%Hill%NULL%4,   Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,   Sajedeh%Mousaviasl%NULL%1,   Esmat%Radmanesh%NULL%1,   Saeed%Jelvay%NULL%1,   Saeid%Bitaraf%NULL%1,   Bryony%Simmons%NULL%0,   Hannah%Wentzel%NULL%0,   Andrew%Hill%NULL%0,   Anahita%Sadeghi%NULL%1,   James%Freeman%NULL%1,   Shokrollah%Salmanzadeh%NULL%1,   Hani%Esmaeilian%NULL%1,   Morteza%Mobarak%NULL%1,   Ramin%Tabibi%NULL%1,   Amir Hosein%Jafari Kashi%NULL%1,   Zahra%Lotfi%NULL%1,   Seyed Mehdi%Talebzadeh%NULL%1,   Aseni%Wickramatillake%NULL%1,   Mahboobeh%Momtazan%NULL%1,   Majid%Hajizadeh Farsani%NULL%1,   Sedigheh%Marjani%NULL%1,   Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,   Majid%Saeedi%NULL%0,   Reza%Alizadeh-Navaei%NULL%1,   Akbar%Hedayatizadeh-Omran%NULL%1,   Shahin%Merat%NULL%0,   Hannah%Wentzel%NULL%0,   Hannah%Wentzel%NULL%0,   Jacob%Levi%NULL%0,   Andrew%Hill%NULL%0,   Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,   Hossein%Khalili%NULL%1,   Zahra%Ahmadinejad%NULL%1,   Hamid%Emadi Kouchak%NULL%1,   Sirous%Jafari%NULL%1,   Sayed Ali%Dehghan Manshadi%NULL%1,   Mehrnaz%Rasolinejad%NULL%1,   Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,   Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,   Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,   Farid%Najafi%NULL%1,   Ronak%Miladi%NULL%1,   Zeinab%Mohseni Afshar%NULL%1,   Feizollah%Mansouri%NULL%1,   Zohreh%Rahimi%NULL%1,   Maria%Shirvani%NULL%1,   Mehdi%Salimi%NULL%1,   Siavash%Vaziri%NULL%1,   Alireza%Janbakhsh%NULL%1,   Fatemeh%Khosravi Shadmani%NULL%1,   Arezoo%Bozorgomid%NULL%1,   Mohammad Hossein%Zamanian%NULL%1,   Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,   Ali%Ali Asgari%NULL%2,   Ali%Ali Asgari%NULL%0,   Alireza%Norouzi%NULL%1,   Zahedin%Kheiri%NULL%1,   Amir%Anushirvani%NULL%1,   Mahnaz%Montazeri%NULL%1,   Hadiseh%Hosamirudsai%NULL%1,   Shirin%Afhami%NULL%1,   Elham%Akbarpour%NULL%1,   Rasoul%Aliannejad%NULL%2,   Rasoul%Aliannejad%NULL%0,   Amir Reza%Radmard%NULL%1,   Amir H%Davarpanah%NULL%1,   Jacob%Levi%NULL%0,   Hannah%Wentzel%NULL%0,   Ambar%Qavi%NULL%1,   Anna%Garratt%NULL%0,   Bryony%Simmons%NULL%0,   Andrew%Hill%NULL%0,   Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,   Ehab%Kamal%NULL%2,   Ehab%Kamal%NULL%0,   Mohsen%Salama%NULL%2,   Mohsen%Salama%NULL%0,   Tary%Salman%NULL%1,   Alyaa%Sabry%NULL%1,   Wael%Abdel‐Razek%NULL%1,   Sherine%Helmy%NULL%1,   Ahmed%Abdelgwad%NULL%1,   Neamt%Sakr%NULL%1,   Mohamed%Elgazzar%NULL%1,   Mohamed%Einar%NULL%1,   Mahmoud%Farouk%NULL%1,   Mounir%Saif%NULL%1,   Ismail%Shehab%NULL%1,   Eman%El‐hosieny%NULL%1,   Mai%Mansour%NULL%1,   Doaa%Mahdi%NULL%1,   El‐Sayed%Tharwa%NULL%1,   Mostafa%Salah%NULL%1,   Ola%Elrouby%NULL%1,   Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,    Siavash%Moradi%NULL%1,    Amir Mohammad%Shabani%NULL%1,    Farhang%Babamahmoodi%NULL%2,    Farhang%Babamahmoodi%NULL%0,    Ali Reza%Davoudi Badabi%NULL%1,    Lotfollah%Davoudi%NULL%1,    Ahmad%Alikhani%NULL%1,    Akbar%Hedayatizadeh Omran%NULL%1,    Majid%Saeedi%NULL%2,    Shahin%Merat%NULL%3,    Hannah%Wentzel%NULL%6,    Hannah%Wentzel%NULL%0,    Anna%Garratt%NULL%2,    Jacob%Levi%NULL%3,    Bryony%Simmons%NULL%3,    Andrew%Hill%NULL%4,    Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,    Sajedeh%Mousaviasl%NULL%1,    Esmat%Radmanesh%NULL%1,    Saeed%Jelvay%NULL%1,    Saeid%Bitaraf%NULL%1,    Bryony%Simmons%NULL%0,    Hannah%Wentzel%NULL%0,    Andrew%Hill%NULL%0,    Anahita%Sadeghi%NULL%1,    James%Freeman%NULL%1,    Shokrollah%Salmanzadeh%NULL%1,    Hani%Esmaeilian%NULL%1,    Morteza%Mobarak%NULL%1,    Ramin%Tabibi%NULL%1,    Amir Hosein%Jafari Kashi%NULL%1,    Zahra%Lotfi%NULL%1,    Seyed Mehdi%Talebzadeh%NULL%1,    Aseni%Wickramatillake%NULL%1,    Mahboobeh%Momtazan%NULL%1,    Majid%Hajizadeh Farsani%NULL%1,    Sedigheh%Marjani%NULL%1,    Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,    Majid%Saeedi%NULL%0,    Reza%Alizadeh-Navaei%NULL%1,    Akbar%Hedayatizadeh-Omran%NULL%1,    Shahin%Merat%NULL%0,    Hannah%Wentzel%NULL%0,    Hannah%Wentzel%NULL%0,    Jacob%Levi%NULL%0,    Andrew%Hill%NULL%0,    Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,    Hossein%Khalili%NULL%1,    Zahra%Ahmadinejad%NULL%1,    Hamid%Emadi Kouchak%NULL%1,    Sirous%Jafari%NULL%1,    Sayed Ali%Dehghan Manshadi%NULL%1,    Mehrnaz%Rasolinejad%NULL%1,    Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,    Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,    Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,    Farid%Najafi%NULL%1,    Ronak%Miladi%NULL%1,    Zeinab%Mohseni Afshar%NULL%1,    Feizollah%Mansouri%NULL%1,    Zohreh%Rahimi%NULL%1,    Maria%Shirvani%NULL%1,    Mehdi%Salimi%NULL%1,    Siavash%Vaziri%NULL%1,    Alireza%Janbakhsh%NULL%1,    Fatemeh%Khosravi Shadmani%NULL%1,    Arezoo%Bozorgomid%NULL%1,    Mohammad Hossein%Zamanian%NULL%1,    Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,    Ali%Ali Asgari%NULL%2,    Ali%Ali Asgari%NULL%0,    Alireza%Norouzi%NULL%1,    Zahedin%Kheiri%NULL%1,    Amir%Anushirvani%NULL%1,    Mahnaz%Montazeri%NULL%1,    Hadiseh%Hosamirudsai%NULL%1,    Shirin%Afhami%NULL%1,    Elham%Akbarpour%NULL%1,    Rasoul%Aliannejad%NULL%2,    Rasoul%Aliannejad%NULL%0,    Amir Reza%Radmard%NULL%1,    Amir H%Davarpanah%NULL%1,    Jacob%Levi%NULL%0,    Hannah%Wentzel%NULL%0,    Ambar%Qavi%NULL%1,    Anna%Garratt%NULL%0,    Bryony%Simmons%NULL%0,    Andrew%Hill%NULL%0,    Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,    Ehab%Kamal%NULL%2,    Ehab%Kamal%NULL%0,    Mohsen%Salama%NULL%2,    Mohsen%Salama%NULL%0,    Tary%Salman%NULL%1,    Alyaa%Sabry%NULL%1,    Wael%Abdel‐Razek%NULL%1,    Sherine%Helmy%NULL%1,    Ahmed%Abdelgwad%NULL%1,    Neamt%Sakr%NULL%1,    Mohamed%Elgazzar%NULL%1,    Mohamed%Einar%NULL%1,    Mahmoud%Farouk%NULL%1,    Mounir%Saif%NULL%1,    Ismail%Shehab%NULL%1,    Eman%El‐hosieny%NULL%1,    Mai%Mansour%NULL%1,    Doaa%Mahdi%NULL%1,    El‐Sayed%Tharwa%NULL%1,    Mostafa%Salah%NULL%1,    Ola%Elrouby%NULL%1,    Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,     Siavash%Moradi%NULL%1,     Amir Mohammad%Shabani%NULL%1,     Farhang%Babamahmoodi%NULL%2,     Farhang%Babamahmoodi%NULL%0,     Ali Reza%Davoudi Badabi%NULL%1,     Lotfollah%Davoudi%NULL%1,     Ahmad%Alikhani%NULL%1,     Akbar%Hedayatizadeh Omran%NULL%1,     Majid%Saeedi%NULL%2,     Shahin%Merat%NULL%3,     Hannah%Wentzel%NULL%6,     Hannah%Wentzel%NULL%0,     Anna%Garratt%NULL%2,     Jacob%Levi%NULL%3,     Bryony%Simmons%NULL%3,     Andrew%Hill%NULL%4,     Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,     Sajedeh%Mousaviasl%NULL%1,     Esmat%Radmanesh%NULL%1,     Saeed%Jelvay%NULL%1,     Saeid%Bitaraf%NULL%1,     Bryony%Simmons%NULL%0,     Hannah%Wentzel%NULL%0,     Andrew%Hill%NULL%0,     Anahita%Sadeghi%NULL%1,     James%Freeman%NULL%1,     Shokrollah%Salmanzadeh%NULL%1,     Hani%Esmaeilian%NULL%1,     Morteza%Mobarak%NULL%1,     Ramin%Tabibi%NULL%1,     Amir Hosein%Jafari Kashi%NULL%1,     Zahra%Lotfi%NULL%2,     Seyed Mehdi%Talebzadeh%NULL%1,     Aseni%Wickramatillake%NULL%1,     Mahboobeh%Momtazan%NULL%1,     Majid%Hajizadeh Farsani%NULL%1,     Sedigheh%Marjani%NULL%1,     Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,     Majid%Saeedi%NULL%0,     Reza%Alizadeh-Navaei%NULL%1,     Akbar%Hedayatizadeh-Omran%NULL%1,     Shahin%Merat%NULL%0,     Hannah%Wentzel%NULL%0,     Hannah%Wentzel%NULL%0,     Jacob%Levi%NULL%0,     Andrew%Hill%NULL%0,     Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,     Hossein%Khalili%NULL%1,     Zahra%Ahmadinejad%NULL%1,     Hamid%Emadi Kouchak%NULL%1,     Sirous%Jafari%NULL%1,     Sayed Ali%Dehghan Manshadi%NULL%1,     Mehrnaz%Rasolinejad%NULL%1,     Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,     Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,     Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,     Farid%Najafi%NULL%1,     Ronak%Miladi%NULL%1,     Zeinab%Mohseni Afshar%NULL%1,     Feizollah%Mansouri%NULL%1,     Zohreh%Rahimi%NULL%1,     Maria%Shirvani%NULL%1,     Mehdi%Salimi%NULL%1,     Siavash%Vaziri%NULL%1,     Alireza%Janbakhsh%NULL%1,     Fatemeh%Khosravi Shadmani%NULL%1,     Arezoo%Bozorgomid%NULL%1,     Mohammad Hossein%Zamanian%NULL%1,     Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,     Ali%Ali Asgari%NULL%2,     Ali%Ali Asgari%NULL%0,     Alireza%Norouzi%NULL%1,     Zahedin%Kheiri%NULL%1,     Amir%Anushirvani%NULL%1,     Mahnaz%Montazeri%NULL%1,     Hadiseh%Hosamirudsai%NULL%1,     Shirin%Afhami%NULL%1,     Elham%Akbarpour%NULL%1,     Rasoul%Aliannejad%NULL%2,     Rasoul%Aliannejad%NULL%0,     Amir Reza%Radmard%NULL%1,     Amir H%Davarpanah%NULL%1,     Jacob%Levi%NULL%0,     Hannah%Wentzel%NULL%0,     Ambar%Qavi%NULL%1,     Anna%Garratt%NULL%0,     Bryony%Simmons%NULL%0,     Andrew%Hill%NULL%0,     Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,     Ehab%Kamal%NULL%2,     Ehab%Kamal%NULL%0,     Mohsen%Salama%NULL%2,     Mohsen%Salama%NULL%0,     Tary%Salman%NULL%1,     Alyaa%Sabry%NULL%1,     Wael%Abdel‐Razek%NULL%1,     Sherine%Helmy%NULL%1,     Ahmed%Abdelgwad%NULL%1,     Neamt%Sakr%NULL%1,     Mohamed%Elgazzar%NULL%1,     Mohamed%Einar%NULL%1,     Mahmoud%Farouk%NULL%1,     Mounir%Saif%NULL%1,     Ismail%Shehab%NULL%1,     Eman%El‐hosieny%NULL%1,     Mai%Mansour%NULL%1,     Doaa%Mahdi%NULL%1,     El‐Sayed%Tharwa%NULL%1,     Mostafa%Salah%NULL%1,     Ola%Elrouby%NULL%1,     Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,      Siavash%Moradi%NULL%1,      Amir Mohammad%Shabani%NULL%1,      Farhang%Babamahmoodi%NULL%2,      Farhang%Babamahmoodi%NULL%0,      Ali Reza%Davoudi Badabi%NULL%1,      Lotfollah%Davoudi%NULL%1,      Ahmad%Alikhani%NULL%1,      Akbar%Hedayatizadeh Omran%NULL%1,      Majid%Saeedi%NULL%2,      Shahin%Merat%NULL%3,      Hannah%Wentzel%NULL%6,      Hannah%Wentzel%NULL%0,      Anna%Garratt%NULL%2,      Jacob%Levi%NULL%3,      Bryony%Simmons%NULL%3,      Andrew%Hill%NULL%4,      Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,      Sajedeh%Mousaviasl%NULL%1,      Esmat%Radmanesh%NULL%1,      Saeed%Jelvay%NULL%1,      Saeid%Bitaraf%NULL%1,      Bryony%Simmons%NULL%0,      Hannah%Wentzel%NULL%0,      Andrew%Hill%NULL%0,      Anahita%Sadeghi%NULL%1,      James%Freeman%NULL%1,      Shokrollah%Salmanzadeh%NULL%1,      Hani%Esmaeilian%NULL%1,      Morteza%Mobarak%NULL%1,      Ramin%Tabibi%NULL%1,      Amir Hosein%Jafari Kashi%NULL%1,      Zahra%Lotfi%NULL%2,      Seyed Mehdi%Talebzadeh%NULL%1,      Aseni%Wickramatillake%NULL%1,      Mahboobeh%Momtazan%NULL%1,      Majid%Hajizadeh Farsani%NULL%1,      Sedigheh%Marjani%NULL%1,      Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,      Majid%Saeedi%NULL%0,      Reza%Alizadeh-Navaei%NULL%1,      Akbar%Hedayatizadeh-Omran%NULL%1,      Shahin%Merat%NULL%0,      Hannah%Wentzel%NULL%0,      Hannah%Wentzel%NULL%0,      Jacob%Levi%NULL%0,      Andrew%Hill%NULL%0,      Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,      Hossein%Khalili%NULL%1,      Zahra%Ahmadinejad%NULL%1,      Hamid%Emadi Kouchak%NULL%1,      Sirous%Jafari%NULL%1,      Sayed Ali%Dehghan Manshadi%NULL%1,      Mehrnaz%Rasolinejad%NULL%1,      Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,      Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,      Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,      Farid%Najafi%NULL%1,      Ronak%Miladi%NULL%1,      Zeinab%Mohseni Afshar%NULL%1,      Feizollah%Mansouri%NULL%1,      Zohreh%Rahimi%NULL%1,      Maria%Shirvani%NULL%1,      Mehdi%Salimi%NULL%1,      Siavash%Vaziri%NULL%1,      Alireza%Janbakhsh%NULL%1,      Fatemeh%Khosravi Shadmani%NULL%1,      Arezoo%Bozorgomid%NULL%1,      Mohammad Hossein%Zamanian%NULL%1,      Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,      Ali%Ali Asgari%NULL%2,      Ali%Ali Asgari%NULL%0,      Alireza%Norouzi%NULL%1,      Zahedin%Kheiri%NULL%1,      Amir%Anushirvani%NULL%1,      Mahnaz%Montazeri%NULL%1,      Hadiseh%Hosamirudsai%NULL%1,      Shirin%Afhami%NULL%1,      Elham%Akbarpour%NULL%1,      Rasoul%Aliannejad%NULL%2,      Rasoul%Aliannejad%NULL%0,      Amir Reza%Radmard%NULL%1,      Amir H%Davarpanah%NULL%1,      Jacob%Levi%NULL%0,      Hannah%Wentzel%NULL%0,      Ambar%Qavi%NULL%1,      Anna%Garratt%NULL%0,      Bryony%Simmons%NULL%0,      Andrew%Hill%NULL%0,      Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,      Ehab%Kamal%NULL%2,      Ehab%Kamal%NULL%0,      Mohsen%Salama%NULL%2,      Mohsen%Salama%NULL%0,      Tary%Salman%NULL%1,      Alyaa%Sabry%NULL%1,      Wael%Abdel‐Razek%NULL%1,      Sherine%Helmy%NULL%1,      Ahmed%Abdelgwad%NULL%1,      Neamt%Sakr%NULL%1,      Mohamed%Elgazzar%NULL%1,      Mohamed%Einar%NULL%1,      Mahmoud%Farouk%NULL%1,      Mounir%Saif%NULL%1,      Ismail%Shehab%NULL%1,      Eman%El‐hosieny%NULL%1,      Mai%Mansour%NULL%1,      Doaa%Mahdi%NULL%1,      El‐Sayed%Tharwa%NULL%1,      Mostafa%Salah%NULL%1,      Ola%Elrouby%NULL%1,      Imam%Waked%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -686,7 +770,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -744,7 +828,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -773,7 +857,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -802,7 +886,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -831,7 +915,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -860,7 +944,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -889,7 +973,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/17.xlsx
+++ b/Covid_19_Dataset_and_References/References/17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="113">
   <si>
     <t>Doi</t>
   </si>
@@ -421,6 +421,63 @@
   </si>
   <si>
     <t>[Sherif%Abbass%sherif533@hotmail.com%1,      Ehab%Kamal%NULL%2,      Ehab%Kamal%NULL%0,      Mohsen%Salama%NULL%2,      Mohsen%Salama%NULL%0,      Tary%Salman%NULL%1,      Alyaa%Sabry%NULL%1,      Wael%Abdel‐Razek%NULL%1,      Sherine%Helmy%NULL%1,      Ahmed%Abdelgwad%NULL%1,      Neamt%Sakr%NULL%1,      Mohamed%Elgazzar%NULL%1,      Mohamed%Einar%NULL%1,      Mahmoud%Farouk%NULL%1,      Mounir%Saif%NULL%1,      Ismail%Shehab%NULL%1,      Eman%El‐hosieny%NULL%1,      Mai%Mansour%NULL%1,      Doaa%Mahdi%NULL%1,      El‐Sayed%Tharwa%NULL%1,      Mostafa%Salah%NULL%1,      Ola%Elrouby%NULL%1,      Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,       Siavash%Moradi%NULL%1,       Amir Mohammad%Shabani%NULL%1,       Farhang%Babamahmoodi%NULL%2,       Farhang%Babamahmoodi%NULL%0,       Ali Reza%Davoudi Badabi%NULL%1,       Lotfollah%Davoudi%NULL%1,       Ahmad%Alikhani%NULL%1,       Akbar%Hedayatizadeh Omran%NULL%1,       Majid%Saeedi%NULL%2,       Shahin%Merat%NULL%3,       Hannah%Wentzel%NULL%6,       Hannah%Wentzel%NULL%0,       Anna%Garratt%NULL%2,       Jacob%Levi%NULL%3,       Bryony%Simmons%NULL%3,       Andrew%Hill%NULL%4,       Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>"RETRACTED ARTICLE: Efficacy of combined Sofosbuvir and Daclatasvir in the treatment of COVID-19 patients with pneumonia: a multicenter Egyptian study"</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%1, Sherief%Abd-Elsalam%xref no email%1, Tamer%Elbaz%xref no email%1, Wafaa%El-Akel%xref no email%1, Ahmed%Cordie%xref no email%1, Tamer%Elhadidy%xref no email%1, Hatem%Elalfy%xref no email%1, Khaled%Farid%xref no email%1, Mohamed%Elegezy%xref no email%1, Adel%El-Badrawy%xref no email%1, Mustafa%Neamatallah%xref no email%1, Mohamed%Abd Elghafar%xref no email%1, Marwa%Salama%xref no email%1, Mohamed%AbdAllah%xref no email%1, Mahmoud%Essam%xref no email%1, Mostafa%El-Shazly%xref no email%1, Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-04-29</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,       Sajedeh%Mousaviasl%NULL%1,       Esmat%Radmanesh%NULL%1,       Saeed%Jelvay%NULL%1,       Saeid%Bitaraf%NULL%1,       Bryony%Simmons%NULL%0,       Hannah%Wentzel%NULL%0,       Andrew%Hill%NULL%0,       Anahita%Sadeghi%NULL%1,       James%Freeman%NULL%1,       Shokrollah%Salmanzadeh%NULL%1,       Hani%Esmaeilian%NULL%1,       Morteza%Mobarak%NULL%1,       Ramin%Tabibi%NULL%1,       Amir Hosein%Jafari Kashi%NULL%1,       Zahra%Lotfi%NULL%1,       Seyed Mehdi%Talebzadeh%NULL%1,       Aseni%Wickramatillake%NULL%1,       Mahboobeh%Momtazan%NULL%1,       Majid%Hajizadeh Farsani%NULL%1,       Sedigheh%Marjani%NULL%1,       Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,       Majid%Saeedi%NULL%0,       Reza%Alizadeh-Navaei%NULL%1,       Akbar%Hedayatizadeh-Omran%NULL%1,       Shahin%Merat%NULL%0,       Hannah%Wentzel%NULL%0,       Hannah%Wentzel%NULL%0,       Jacob%Levi%NULL%0,       Andrew%Hill%NULL%0,       Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,       Hossein%Khalili%NULL%1,       Zahra%Ahmadinejad%NULL%1,       Hamid%Emadi Kouchak%NULL%1,       Sirous%Jafari%NULL%1,       Sayed Ali%Dehghan Manshadi%NULL%1,       Mehrnaz%Rasolinejad%NULL%1,       Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,       Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,       Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,       Farid%Najafi%NULL%1,       Ronak%Miladi%NULL%1,       Zeinab%Mohseni Afshar%NULL%1,       Feizollah%Mansouri%NULL%1,       Zohreh%Rahimi%NULL%1,       Maria%Shirvani%NULL%1,       Mehdi%Salimi%NULL%1,       Siavash%Vaziri%NULL%1,       Alireza%Janbakhsh%NULL%1,       Fatemeh%Khosravi Shadmani%NULL%1,       Arezoo%Bozorgomid%NULL%1,       Mohammad Hossein%Zamanian%NULL%1,       Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,       Ali%Ali Asgari%NULL%2,       Ali%Ali Asgari%NULL%0,       Alireza%Norouzi%NULL%1,       Zahedin%Kheiri%NULL%1,       Amir%Anushirvani%NULL%1,       Mahnaz%Montazeri%NULL%1,       Hadiseh%Hosamirudsai%NULL%1,       Shirin%Afhami%NULL%1,       Elham%Akbarpour%NULL%1,       Rasoul%Aliannejad%NULL%2,       Rasoul%Aliannejad%NULL%0,       Amir Reza%Radmard%NULL%1,       Amir H%Davarpanah%NULL%1,       Jacob%Levi%NULL%0,       Hannah%Wentzel%NULL%0,       Ambar%Qavi%NULL%1,       Anna%Garratt%NULL%0,       Bryony%Simmons%NULL%0,       Andrew%Hill%NULL%0,       Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,       Ehab%Kamal%NULL%2,       Ehab%Kamal%NULL%0,       Mohsen%Salama%NULL%2,       Mohsen%Salama%NULL%0,       Tary%Salman%NULL%1,       Alyaa%Sabry%NULL%1,       Wael%Abdel‐Razek%NULL%1,       Sherine%Helmy%NULL%1,       Ahmed%Abdelgwad%NULL%1,       Neamt%Sakr%NULL%1,       Mohamed%Elgazzar%NULL%1,       Mohamed%Einar%NULL%1,       Mahmoud%Farouk%NULL%1,       Mounir%Saif%NULL%1,       Ismail%Shehab%NULL%1,       Eman%El‐hosieny%NULL%1,       Mai%Mansour%NULL%1,       Doaa%Mahdi%NULL%1,       El‐Sayed%Tharwa%NULL%1,       Mostafa%Salah%NULL%1,       Ola%Elrouby%NULL%1,       Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,        Siavash%Moradi%NULL%1,        Amir Mohammad%Shabani%NULL%1,        Farhang%Babamahmoodi%NULL%2,        Farhang%Babamahmoodi%NULL%0,        Ali Reza%Davoudi Badabi%NULL%1,        Lotfollah%Davoudi%NULL%1,        Ahmad%Alikhani%NULL%1,        Akbar%Hedayatizadeh Omran%NULL%1,        Majid%Saeedi%NULL%2,        Shahin%Merat%NULL%3,        Hannah%Wentzel%NULL%6,        Hannah%Wentzel%NULL%0,        Anna%Garratt%NULL%2,        Jacob%Levi%NULL%3,        Bryony%Simmons%NULL%3,        Andrew%Hill%NULL%4,        Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%1,  Sherief%Abd-Elsalam%xref no email%1,  Tamer%Elbaz%xref no email%1,  Wafaa%El-Akel%xref no email%1,  Ahmed%Cordie%xref no email%1,  Tamer%Elhadidy%xref no email%1,  Hatem%Elalfy%xref no email%1,  Khaled%Farid%xref no email%1,  Mohamed%Elegezy%xref no email%1,  Adel%El-Badrawy%xref no email%1,  Mustafa%Neamatallah%xref no email%1,  Mohamed%Abd Elghafar%xref no email%1,  Marwa%Salama%xref no email%1,  Mohamed%AbdAllah%xref no email%1,  Mahmoud%Essam%xref no email%1,  Mostafa%El-Shazly%xref no email%1,  Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,        Sajedeh%Mousaviasl%NULL%1,        Esmat%Radmanesh%NULL%1,        Saeed%Jelvay%NULL%1,        Saeid%Bitaraf%NULL%1,        Bryony%Simmons%NULL%0,        Hannah%Wentzel%NULL%0,        Andrew%Hill%NULL%0,        Anahita%Sadeghi%NULL%1,        James%Freeman%NULL%1,        Shokrollah%Salmanzadeh%NULL%1,        Hani%Esmaeilian%NULL%1,        Morteza%Mobarak%NULL%1,        Ramin%Tabibi%NULL%1,        Amir Hosein%Jafari Kashi%NULL%1,        Zahra%Lotfi%NULL%1,        Seyed Mehdi%Talebzadeh%NULL%1,        Aseni%Wickramatillake%NULL%1,        Mahboobeh%Momtazan%NULL%1,        Majid%Hajizadeh Farsani%NULL%1,        Sedigheh%Marjani%NULL%1,        Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,        Majid%Saeedi%NULL%0,        Reza%Alizadeh-Navaei%NULL%1,        Akbar%Hedayatizadeh-Omran%NULL%1,        Shahin%Merat%NULL%0,        Hannah%Wentzel%NULL%0,        Hannah%Wentzel%NULL%0,        Jacob%Levi%NULL%0,        Andrew%Hill%NULL%0,        Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,        Hossein%Khalili%NULL%1,        Zahra%Ahmadinejad%NULL%1,        Hamid%Emadi Kouchak%NULL%1,        Sirous%Jafari%NULL%1,        Sayed Ali%Dehghan Manshadi%NULL%1,        Mehrnaz%Rasolinejad%NULL%1,        Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,        Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,        Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,        Farid%Najafi%NULL%1,        Ronak%Miladi%NULL%1,        Zeinab%Mohseni Afshar%NULL%1,        Feizollah%Mansouri%NULL%1,        Zohreh%Rahimi%NULL%1,        Maria%Shirvani%NULL%1,        Mehdi%Salimi%NULL%1,        Siavash%Vaziri%NULL%1,        Alireza%Janbakhsh%NULL%1,        Fatemeh%Khosravi Shadmani%NULL%1,        Arezoo%Bozorgomid%NULL%1,        Mohammad Hossein%Zamanian%NULL%1,        Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,        Ali%Ali Asgari%NULL%2,        Ali%Ali Asgari%NULL%0,        Alireza%Norouzi%NULL%1,        Zahedin%Kheiri%NULL%1,        Amir%Anushirvani%NULL%1,        Mahnaz%Montazeri%NULL%1,        Hadiseh%Hosamirudsai%NULL%1,        Shirin%Afhami%NULL%1,        Elham%Akbarpour%NULL%1,        Rasoul%Aliannejad%NULL%2,        Rasoul%Aliannejad%NULL%0,        Amir Reza%Radmard%NULL%1,        Amir H%Davarpanah%NULL%1,        Jacob%Levi%NULL%0,        Hannah%Wentzel%NULL%0,        Ambar%Qavi%NULL%1,        Anna%Garratt%NULL%0,        Bryony%Simmons%NULL%0,        Andrew%Hill%NULL%0,        Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,        Ehab%Kamal%NULL%2,        Ehab%Kamal%NULL%0,        Mohsen%Salama%NULL%2,        Mohsen%Salama%NULL%0,        Tary%Salman%NULL%1,        Alyaa%Sabry%NULL%1,        Wael%Abdel‐Razek%NULL%1,        Sherine%Helmy%NULL%1,        Ahmed%Abdelgwad%NULL%1,        Neamt%Sakr%NULL%1,        Mohamed%Elgazzar%NULL%1,        Mohamed%Einar%NULL%1,        Mahmoud%Farouk%NULL%1,        Mounir%Saif%NULL%1,        Ismail%Shehab%NULL%1,        Eman%El‐hosieny%NULL%1,        Mai%Mansour%NULL%1,        Doaa%Mahdi%NULL%1,        El‐Sayed%Tharwa%NULL%1,        Mostafa%Salah%NULL%1,        Ola%Elrouby%NULL%1,        Imam%Waked%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -770,7 +827,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -793,22 +850,22 @@
         <v>44306.0</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
         <v>59</v>
@@ -828,7 +885,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -857,7 +914,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -886,7 +943,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -915,7 +972,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -944,7 +1001,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -973,7 +1030,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/17.xlsx
+++ b/Covid_19_Dataset_and_References/References/17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="129">
   <si>
     <t>Doi</t>
   </si>
@@ -478,6 +478,54 @@
   </si>
   <si>
     <t>[Sherif%Abbass%sherif533@hotmail.com%1,        Ehab%Kamal%NULL%2,        Ehab%Kamal%NULL%0,        Mohsen%Salama%NULL%2,        Mohsen%Salama%NULL%0,        Tary%Salman%NULL%1,        Alyaa%Sabry%NULL%1,        Wael%Abdel‐Razek%NULL%1,        Sherine%Helmy%NULL%1,        Ahmed%Abdelgwad%NULL%1,        Neamt%Sakr%NULL%1,        Mohamed%Elgazzar%NULL%1,        Mohamed%Einar%NULL%1,        Mahmoud%Farouk%NULL%1,        Mounir%Saif%NULL%1,        Ismail%Shehab%NULL%1,        Eman%El‐hosieny%NULL%1,        Mai%Mansour%NULL%1,        Doaa%Mahdi%NULL%1,        El‐Sayed%Tharwa%NULL%1,        Mostafa%Salah%NULL%1,        Ola%Elrouby%NULL%1,        Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,         Siavash%Moradi%NULL%1,         Amir Mohammad%Shabani%NULL%1,         Farhang%Babamahmoodi%NULL%2,         Farhang%Babamahmoodi%NULL%0,         Ali Reza%Davoudi Badabi%NULL%1,         Lotfollah%Davoudi%NULL%1,         Ahmad%Alikhani%NULL%1,         Akbar%Hedayatizadeh Omran%NULL%1,         Majid%Saeedi%NULL%2,         Shahin%Merat%NULL%3,         Hannah%Wentzel%NULL%6,         Hannah%Wentzel%NULL%0,         Anna%Garratt%NULL%2,         Jacob%Levi%NULL%3,         Bryony%Simmons%NULL%3,         Andrew%Hill%NULL%4,         Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%1,   Sherief%Abd-Elsalam%xref no email%1,   Tamer%Elbaz%xref no email%1,   Wafaa%El-Akel%xref no email%1,   Ahmed%Cordie%xref no email%1,   Tamer%Elhadidy%xref no email%1,   Hatem%Elalfy%xref no email%1,   Khaled%Farid%xref no email%1,   Mohamed%Elegezy%xref no email%1,   Adel%El-Badrawy%xref no email%1,   Mustafa%Neamatallah%xref no email%1,   Mohamed%Abd Elghafar%xref no email%1,   Marwa%Salama%xref no email%1,   Mohamed%AbdAllah%xref no email%1,   Mahmoud%Essam%xref no email%1,   Mostafa%El-Shazly%xref no email%1,   Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,         Sajedeh%Mousaviasl%NULL%1,         Esmat%Radmanesh%NULL%1,         Saeed%Jelvay%NULL%1,         Saeid%Bitaraf%NULL%1,         Bryony%Simmons%NULL%0,         Hannah%Wentzel%NULL%0,         Andrew%Hill%NULL%0,         Anahita%Sadeghi%NULL%1,         James%Freeman%NULL%1,         Shokrollah%Salmanzadeh%NULL%1,         Hani%Esmaeilian%NULL%1,         Morteza%Mobarak%NULL%1,         Ramin%Tabibi%NULL%1,         Amir Hosein%Jafari Kashi%NULL%1,         Zahra%Lotfi%NULL%1,         Seyed Mehdi%Talebzadeh%NULL%1,         Aseni%Wickramatillake%NULL%1,         Mahboobeh%Momtazan%NULL%1,         Majid%Hajizadeh Farsani%NULL%1,         Sedigheh%Marjani%NULL%1,         Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,         Majid%Saeedi%NULL%0,         Reza%Alizadeh-Navaei%NULL%1,         Akbar%Hedayatizadeh-Omran%NULL%1,         Shahin%Merat%NULL%0,         Hannah%Wentzel%NULL%0,         Hannah%Wentzel%NULL%0,         Jacob%Levi%NULL%0,         Andrew%Hill%NULL%0,         Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,         Hossein%Khalili%NULL%1,         Zahra%Ahmadinejad%NULL%1,         Hamid%Emadi Kouchak%NULL%1,         Sirous%Jafari%NULL%1,         Sayed Ali%Dehghan Manshadi%NULL%1,         Mehrnaz%Rasolinejad%NULL%1,         Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,         Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,         Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,         Farid%Najafi%NULL%1,         Ronak%Miladi%NULL%1,         Zeinab%Mohseni Afshar%NULL%1,         Feizollah%Mansouri%NULL%1,         Zohreh%Rahimi%NULL%1,         Maria%Shirvani%NULL%1,         Mehdi%Salimi%NULL%1,         Siavash%Vaziri%NULL%1,         Alireza%Janbakhsh%NULL%1,         Fatemeh%Khosravi Shadmani%NULL%1,         Arezoo%Bozorgomid%NULL%1,         Mohammad Hossein%Zamanian%NULL%1,         Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,         Ali%Ali Asgari%NULL%2,         Ali%Ali Asgari%NULL%0,         Alireza%Norouzi%NULL%1,         Zahedin%Kheiri%NULL%1,         Amir%Anushirvani%NULL%1,         Mahnaz%Montazeri%NULL%1,         Hadiseh%Hosamirudsai%NULL%1,         Shirin%Afhami%NULL%1,         Elham%Akbarpour%NULL%1,         Rasoul%Aliannejad%NULL%2,         Rasoul%Aliannejad%NULL%0,         Amir Reza%Radmard%NULL%1,         Amir H%Davarpanah%NULL%1,         Jacob%Levi%NULL%0,         Hannah%Wentzel%NULL%0,         Ambar%Qavi%NULL%1,         Anna%Garratt%NULL%0,         Bryony%Simmons%NULL%0,         Andrew%Hill%NULL%0,         Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,         Ehab%Kamal%NULL%2,         Ehab%Kamal%NULL%0,         Mohsen%Salama%NULL%2,         Mohsen%Salama%NULL%0,         Tary%Salman%NULL%1,         Alyaa%Sabry%NULL%1,         Wael%Abdel‐Razek%NULL%1,         Sherine%Helmy%NULL%1,         Ahmed%Abdelgwad%NULL%1,         Neamt%Sakr%NULL%1,         Mohamed%Elgazzar%NULL%1,         Mohamed%Einar%NULL%1,         Mahmoud%Farouk%NULL%1,         Mounir%Saif%NULL%1,         Ismail%Shehab%NULL%1,         Eman%El‐hosieny%NULL%1,         Mai%Mansour%NULL%1,         Doaa%Mahdi%NULL%1,         El‐Sayed%Tharwa%NULL%1,         Mostafa%Salah%NULL%1,         Ola%Elrouby%NULL%1,         Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,          Siavash%Moradi%NULL%1,          Amir Mohammad%Shabani%NULL%1,          Farhang%Babamahmoodi%NULL%2,          Farhang%Babamahmoodi%NULL%0,          Ali Reza%Davoudi Badabi%NULL%1,          Lotfollah%Davoudi%NULL%1,          Ahmad%Alikhani%NULL%1,          Akbar%Hedayatizadeh Omran%NULL%1,          Majid%Saeedi%NULL%2,          Shahin%Merat%NULL%3,          Hannah%Wentzel%NULL%6,          Hannah%Wentzel%NULL%0,          Anna%Garratt%NULL%2,          Jacob%Levi%NULL%3,          Bryony%Simmons%NULL%3,          Andrew%Hill%NULL%4,          Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%1,    Sherief%Abd-Elsalam%xref no email%1,    Tamer%Elbaz%xref no email%1,    Wafaa%El-Akel%xref no email%1,    Ahmed%Cordie%xref no email%1,    Tamer%Elhadidy%xref no email%1,    Hatem%Elalfy%xref no email%1,    Khaled%Farid%xref no email%1,    Mohamed%Elegezy%xref no email%1,    Adel%El-Badrawy%xref no email%1,    Mustafa%Neamatallah%xref no email%1,    Mohamed%Abd Elghafar%xref no email%1,    Marwa%Salama%xref no email%1,    Mohamed%AbdAllah%xref no email%1,    Mahmoud%Essam%xref no email%1,    Mostafa%El-Shazly%xref no email%1,    Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,          Sajedeh%Mousaviasl%NULL%1,          Esmat%Radmanesh%NULL%1,          Saeed%Jelvay%NULL%1,          Saeid%Bitaraf%NULL%1,          Bryony%Simmons%NULL%0,          Hannah%Wentzel%NULL%0,          Andrew%Hill%NULL%0,          Anahita%Sadeghi%NULL%1,          James%Freeman%NULL%1,          Shokrollah%Salmanzadeh%NULL%1,          Hani%Esmaeilian%NULL%1,          Morteza%Mobarak%NULL%1,          Ramin%Tabibi%NULL%1,          Amir Hosein%Jafari Kashi%NULL%1,          Zahra%Lotfi%NULL%1,          Seyed Mehdi%Talebzadeh%NULL%1,          Aseni%Wickramatillake%NULL%1,          Mahboobeh%Momtazan%NULL%1,          Majid%Hajizadeh Farsani%NULL%1,          Sedigheh%Marjani%NULL%1,          Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,          Majid%Saeedi%NULL%0,          Reza%Alizadeh-Navaei%NULL%1,          Akbar%Hedayatizadeh-Omran%NULL%1,          Shahin%Merat%NULL%0,          Hannah%Wentzel%NULL%0,          Hannah%Wentzel%NULL%0,          Jacob%Levi%NULL%0,          Andrew%Hill%NULL%0,          Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,          Hossein%Khalili%NULL%1,          Zahra%Ahmadinejad%NULL%1,          Hamid%Emadi Kouchak%NULL%1,          Sirous%Jafari%NULL%1,          Sayed Ali%Dehghan Manshadi%NULL%1,          Mehrnaz%Rasolinejad%NULL%1,          Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,          Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,          Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,          Farid%Najafi%NULL%1,          Ronak%Miladi%NULL%1,          Zeinab%Mohseni Afshar%NULL%1,          Feizollah%Mansouri%NULL%1,          Zohreh%Rahimi%NULL%1,          Maria%Shirvani%NULL%1,          Mehdi%Salimi%NULL%1,          Siavash%Vaziri%NULL%1,          Alireza%Janbakhsh%NULL%1,          Fatemeh%Khosravi Shadmani%NULL%1,          Arezoo%Bozorgomid%NULL%1,          Mohammad Hossein%Zamanian%NULL%1,          Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,          Ali%Ali Asgari%NULL%2,          Ali%Ali Asgari%NULL%0,          Alireza%Norouzi%NULL%1,          Zahedin%Kheiri%NULL%1,          Amir%Anushirvani%NULL%1,          Mahnaz%Montazeri%NULL%1,          Hadiseh%Hosamirudsai%NULL%1,          Shirin%Afhami%NULL%1,          Elham%Akbarpour%NULL%1,          Rasoul%Aliannejad%NULL%2,          Rasoul%Aliannejad%NULL%0,          Amir Reza%Radmard%NULL%1,          Amir H%Davarpanah%NULL%1,          Jacob%Levi%NULL%0,          Hannah%Wentzel%NULL%0,          Ambar%Qavi%NULL%1,          Anna%Garratt%NULL%0,          Bryony%Simmons%NULL%0,          Andrew%Hill%NULL%0,          Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,          Ehab%Kamal%NULL%2,          Ehab%Kamal%NULL%0,          Mohsen%Salama%NULL%2,          Mohsen%Salama%NULL%0,          Tary%Salman%NULL%1,          Alyaa%Sabry%NULL%1,          Wael%Abdel‐Razek%NULL%1,          Sherine%Helmy%NULL%1,          Ahmed%Abdelgwad%NULL%1,          Neamt%Sakr%NULL%1,          Mohamed%Elgazzar%NULL%1,          Mohamed%Einar%NULL%1,          Mahmoud%Farouk%NULL%1,          Mounir%Saif%NULL%1,          Ismail%Shehab%NULL%1,          Eman%El‐hosieny%NULL%1,          Mai%Mansour%NULL%1,          Doaa%Mahdi%NULL%1,          El‐Sayed%Tharwa%NULL%1,          Mostafa%Salah%NULL%1,          Ola%Elrouby%NULL%1,          Imam%Waked%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -827,7 +875,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -856,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -885,7 +933,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -914,7 +962,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -943,7 +991,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -972,7 +1020,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1001,7 +1049,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1030,7 +1078,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/17.xlsx
+++ b/Covid_19_Dataset_and_References/References/17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="145">
   <si>
     <t>Doi</t>
   </si>
@@ -526,6 +526,54 @@
   </si>
   <si>
     <t>[Sherif%Abbass%sherif533@hotmail.com%1,          Ehab%Kamal%NULL%2,          Ehab%Kamal%NULL%0,          Mohsen%Salama%NULL%2,          Mohsen%Salama%NULL%0,          Tary%Salman%NULL%1,          Alyaa%Sabry%NULL%1,          Wael%Abdel‐Razek%NULL%1,          Sherine%Helmy%NULL%1,          Ahmed%Abdelgwad%NULL%1,          Neamt%Sakr%NULL%1,          Mohamed%Elgazzar%NULL%1,          Mohamed%Einar%NULL%1,          Mahmoud%Farouk%NULL%1,          Mounir%Saif%NULL%1,          Ismail%Shehab%NULL%1,          Eman%El‐hosieny%NULL%1,          Mai%Mansour%NULL%1,          Doaa%Mahdi%NULL%1,          El‐Sayed%Tharwa%NULL%1,          Mostafa%Salah%NULL%1,          Ola%Elrouby%NULL%1,          Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,           Siavash%Moradi%NULL%1,           Amir Mohammad%Shabani%NULL%1,           Farhang%Babamahmoodi%NULL%2,           Farhang%Babamahmoodi%NULL%0,           Ali Reza%Davoudi Badabi%NULL%1,           Lotfollah%Davoudi%NULL%1,           Ahmad%Alikhani%NULL%1,           Akbar%Hedayatizadeh Omran%NULL%1,           Majid%Saeedi%NULL%2,           Shahin%Merat%NULL%3,           Hannah%Wentzel%NULL%6,           Hannah%Wentzel%NULL%0,           Anna%Garratt%NULL%2,           Jacob%Levi%NULL%3,           Bryony%Simmons%NULL%3,           Andrew%Hill%NULL%4,           Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%1,     Sherief%Abd-Elsalam%xref no email%1,     Tamer%Elbaz%xref no email%1,     Wafaa%El-Akel%xref no email%1,     Ahmed%Cordie%xref no email%1,     Tamer%Elhadidy%xref no email%1,     Hatem%Elalfy%xref no email%1,     Khaled%Farid%xref no email%1,     Mohamed%Elegezy%xref no email%1,     Adel%El-Badrawy%xref no email%1,     Mustafa%Neamatallah%xref no email%1,     Mohamed%Abd Elghafar%xref no email%1,     Marwa%Salama%xref no email%1,     Mohamed%AbdAllah%xref no email%1,     Mahmoud%Essam%xref no email%1,     Mostafa%El-Shazly%xref no email%1,     Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,           Sajedeh%Mousaviasl%NULL%1,           Esmat%Radmanesh%NULL%1,           Saeed%Jelvay%NULL%1,           Saeid%Bitaraf%NULL%1,           Bryony%Simmons%NULL%0,           Hannah%Wentzel%NULL%0,           Andrew%Hill%NULL%0,           Anahita%Sadeghi%NULL%1,           James%Freeman%NULL%1,           Shokrollah%Salmanzadeh%NULL%1,           Hani%Esmaeilian%NULL%1,           Morteza%Mobarak%NULL%1,           Ramin%Tabibi%NULL%1,           Amir Hosein%Jafari Kashi%NULL%1,           Zahra%Lotfi%NULL%1,           Seyed Mehdi%Talebzadeh%NULL%1,           Aseni%Wickramatillake%NULL%1,           Mahboobeh%Momtazan%NULL%1,           Majid%Hajizadeh Farsani%NULL%1,           Sedigheh%Marjani%NULL%1,           Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,           Majid%Saeedi%NULL%0,           Reza%Alizadeh-Navaei%NULL%1,           Akbar%Hedayatizadeh-Omran%NULL%1,           Shahin%Merat%NULL%0,           Hannah%Wentzel%NULL%0,           Hannah%Wentzel%NULL%0,           Jacob%Levi%NULL%0,           Andrew%Hill%NULL%0,           Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,           Hossein%Khalili%NULL%1,           Zahra%Ahmadinejad%NULL%1,           Hamid%Emadi Kouchak%NULL%1,           Sirous%Jafari%NULL%1,           Sayed Ali%Dehghan Manshadi%NULL%1,           Mehrnaz%Rasolinejad%NULL%1,           Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,           Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,           Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,           Farid%Najafi%NULL%1,           Ronak%Miladi%NULL%1,           Zeinab%Mohseni Afshar%NULL%1,           Feizollah%Mansouri%NULL%1,           Zohreh%Rahimi%NULL%1,           Maria%Shirvani%NULL%1,           Mehdi%Salimi%NULL%1,           Siavash%Vaziri%NULL%1,           Alireza%Janbakhsh%NULL%1,           Fatemeh%Khosravi Shadmani%NULL%1,           Arezoo%Bozorgomid%NULL%1,           Mohammad Hossein%Zamanian%NULL%1,           Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,           Ali%Ali Asgari%NULL%2,           Ali%Ali Asgari%NULL%0,           Alireza%Norouzi%NULL%1,           Zahedin%Kheiri%NULL%1,           Amir%Anushirvani%NULL%1,           Mahnaz%Montazeri%NULL%1,           Hadiseh%Hosamirudsai%NULL%1,           Shirin%Afhami%NULL%1,           Elham%Akbarpour%NULL%1,           Rasoul%Aliannejad%NULL%2,           Rasoul%Aliannejad%NULL%0,           Amir Reza%Radmard%NULL%1,           Amir H%Davarpanah%NULL%1,           Jacob%Levi%NULL%0,           Hannah%Wentzel%NULL%0,           Ambar%Qavi%NULL%1,           Anna%Garratt%NULL%0,           Bryony%Simmons%NULL%0,           Andrew%Hill%NULL%0,           Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,           Ehab%Kamal%NULL%2,           Ehab%Kamal%NULL%0,           Mohsen%Salama%NULL%2,           Mohsen%Salama%NULL%0,           Tary%Salman%NULL%1,           Alyaa%Sabry%NULL%1,           Wael%Abdel‐Razek%NULL%1,           Sherine%Helmy%NULL%1,           Ahmed%Abdelgwad%NULL%1,           Neamt%Sakr%NULL%1,           Mohamed%Elgazzar%NULL%1,           Mohamed%Einar%NULL%1,           Mahmoud%Farouk%NULL%1,           Mounir%Saif%NULL%1,           Ismail%Shehab%NULL%1,           Eman%El‐hosieny%NULL%1,           Mai%Mansour%NULL%1,           Doaa%Mahdi%NULL%1,           El‐Sayed%Tharwa%NULL%1,           Mostafa%Salah%NULL%1,           Ola%Elrouby%NULL%1,           Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,            Siavash%Moradi%NULL%1,            Amir Mohammad%Shabani%NULL%1,            Farhang%Babamahmoodi%NULL%2,            Farhang%Babamahmoodi%NULL%0,            Ali Reza%Davoudi Badabi%NULL%1,            Lotfollah%Davoudi%NULL%1,            Ahmad%Alikhani%NULL%1,            Akbar%Hedayatizadeh Omran%NULL%1,            Majid%Saeedi%NULL%2,            Shahin%Merat%NULL%3,            Hannah%Wentzel%NULL%6,            Hannah%Wentzel%NULL%0,            Anna%Garratt%NULL%2,            Jacob%Levi%NULL%3,            Bryony%Simmons%NULL%3,            Andrew%Hill%NULL%4,            Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%1,      Sherief%Abd-Elsalam%xref no email%1,      Tamer%Elbaz%xref no email%1,      Wafaa%El-Akel%xref no email%1,      Ahmed%Cordie%xref no email%1,      Tamer%Elhadidy%xref no email%1,      Hatem%Elalfy%xref no email%1,      Khaled%Farid%xref no email%1,      Mohamed%Elegezy%xref no email%1,      Adel%El-Badrawy%xref no email%1,      Mustafa%Neamatallah%xref no email%1,      Mohamed%Abd Elghafar%xref no email%1,      Marwa%Salama%xref no email%1,      Mohamed%AbdAllah%xref no email%1,      Mahmoud%Essam%xref no email%1,      Mostafa%El-Shazly%xref no email%1,      Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,            Sajedeh%Mousaviasl%NULL%1,            Esmat%Radmanesh%NULL%1,            Saeed%Jelvay%NULL%1,            Saeid%Bitaraf%NULL%1,            Bryony%Simmons%NULL%0,            Hannah%Wentzel%NULL%0,            Andrew%Hill%NULL%0,            Anahita%Sadeghi%NULL%1,            James%Freeman%NULL%1,            Shokrollah%Salmanzadeh%NULL%1,            Hani%Esmaeilian%NULL%1,            Morteza%Mobarak%NULL%1,            Ramin%Tabibi%NULL%1,            Amir Hosein%Jafari Kashi%NULL%1,            Zahra%Lotfi%NULL%1,            Seyed Mehdi%Talebzadeh%NULL%1,            Aseni%Wickramatillake%NULL%1,            Mahboobeh%Momtazan%NULL%1,            Majid%Hajizadeh Farsani%NULL%1,            Sedigheh%Marjani%NULL%1,            Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,            Majid%Saeedi%NULL%0,            Reza%Alizadeh-Navaei%NULL%1,            Akbar%Hedayatizadeh-Omran%NULL%1,            Shahin%Merat%NULL%0,            Hannah%Wentzel%NULL%0,            Hannah%Wentzel%NULL%0,            Jacob%Levi%NULL%0,            Andrew%Hill%NULL%0,            Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,            Hossein%Khalili%NULL%1,            Zahra%Ahmadinejad%NULL%1,            Hamid%Emadi Kouchak%NULL%1,            Sirous%Jafari%NULL%1,            Sayed Ali%Dehghan Manshadi%NULL%1,            Mehrnaz%Rasolinejad%NULL%1,            Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,            Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,            Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,            Farid%Najafi%NULL%1,            Ronak%Miladi%NULL%1,            Zeinab%Mohseni Afshar%NULL%1,            Feizollah%Mansouri%NULL%1,            Zohreh%Rahimi%NULL%1,            Maria%Shirvani%NULL%1,            Mehdi%Salimi%NULL%1,            Siavash%Vaziri%NULL%1,            Alireza%Janbakhsh%NULL%1,            Fatemeh%Khosravi Shadmani%NULL%1,            Arezoo%Bozorgomid%NULL%1,            Mohammad Hossein%Zamanian%NULL%1,            Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,            Ali%Ali Asgari%NULL%2,            Ali%Ali Asgari%NULL%0,            Alireza%Norouzi%NULL%1,            Zahedin%Kheiri%NULL%1,            Amir%Anushirvani%NULL%1,            Mahnaz%Montazeri%NULL%1,            Hadiseh%Hosamirudsai%NULL%1,            Shirin%Afhami%NULL%1,            Elham%Akbarpour%NULL%1,            Rasoul%Aliannejad%NULL%2,            Rasoul%Aliannejad%NULL%0,            Amir Reza%Radmard%NULL%1,            Amir H%Davarpanah%NULL%1,            Jacob%Levi%NULL%0,            Hannah%Wentzel%NULL%0,            Ambar%Qavi%NULL%1,            Anna%Garratt%NULL%0,            Bryony%Simmons%NULL%0,            Andrew%Hill%NULL%0,            Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,            Ehab%Kamal%NULL%2,            Ehab%Kamal%NULL%0,            Mohsen%Salama%NULL%2,            Mohsen%Salama%NULL%0,            Tary%Salman%NULL%1,            Alyaa%Sabry%NULL%1,            Wael%Abdel‐Razek%NULL%1,            Sherine%Helmy%NULL%1,            Ahmed%Abdelgwad%NULL%1,            Neamt%Sakr%NULL%1,            Mohamed%Elgazzar%NULL%1,            Mohamed%Einar%NULL%1,            Mahmoud%Farouk%NULL%1,            Mounir%Saif%NULL%1,            Ismail%Shehab%NULL%1,            Eman%El‐hosieny%NULL%1,            Mai%Mansour%NULL%1,            Doaa%Mahdi%NULL%1,            El‐Sayed%Tharwa%NULL%1,            Mostafa%Salah%NULL%1,            Ola%Elrouby%NULL%1,            Imam%Waked%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -875,7 +923,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -904,7 +952,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -933,7 +981,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -962,7 +1010,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -991,7 +1039,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1020,7 +1068,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1049,7 +1097,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1078,7 +1126,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/17.xlsx
+++ b/Covid_19_Dataset_and_References/References/17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="153">
   <si>
     <t>Doi</t>
   </si>
@@ -574,6 +574,30 @@
   </si>
   <si>
     <t>[Sherif%Abbass%sherif533@hotmail.com%1,            Ehab%Kamal%NULL%2,            Ehab%Kamal%NULL%0,            Mohsen%Salama%NULL%2,            Mohsen%Salama%NULL%0,            Tary%Salman%NULL%1,            Alyaa%Sabry%NULL%1,            Wael%Abdel‐Razek%NULL%1,            Sherine%Helmy%NULL%1,            Ahmed%Abdelgwad%NULL%1,            Neamt%Sakr%NULL%1,            Mohamed%Elgazzar%NULL%1,            Mohamed%Einar%NULL%1,            Mahmoud%Farouk%NULL%1,            Mounir%Saif%NULL%1,            Ismail%Shehab%NULL%1,            Eman%El‐hosieny%NULL%1,            Mai%Mansour%NULL%1,            Doaa%Mahdi%NULL%1,            El‐Sayed%Tharwa%NULL%1,            Mostafa%Salah%NULL%1,            Ola%Elrouby%NULL%1,            Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,             Siavash%Moradi%NULL%1,             Amir Mohammad%Shabani%NULL%1,             Farhang%Babamahmoodi%NULL%2,             Farhang%Babamahmoodi%NULL%0,             Ali Reza%Davoudi Badabi%NULL%1,             Lotfollah%Davoudi%NULL%1,             Ahmad%Alikhani%NULL%1,             Akbar%Hedayatizadeh Omran%NULL%1,             Majid%Saeedi%NULL%2,             Shahin%Merat%NULL%3,             Hannah%Wentzel%NULL%6,             Hannah%Wentzel%NULL%0,             Anna%Garratt%NULL%2,             Jacob%Levi%NULL%3,             Bryony%Simmons%NULL%3,             Andrew%Hill%NULL%4,             Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%1,       Sherief%Abd-Elsalam%xref no email%1,       Tamer%Elbaz%xref no email%1,       Wafaa%El-Akel%xref no email%1,       Ahmed%Cordie%xref no email%1,       Tamer%Elhadidy%xref no email%1,       Hatem%Elalfy%xref no email%1,       Khaled%Farid%xref no email%1,       Mohamed%Elegezy%xref no email%1,       Adel%El-Badrawy%xref no email%1,       Mustafa%Neamatallah%xref no email%1,       Mohamed%Abd Elghafar%xref no email%1,       Marwa%Salama%xref no email%1,       Mohamed%AbdAllah%xref no email%1,       Mahmoud%Essam%xref no email%1,       Mostafa%El-Shazly%xref no email%1,       Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,             Sajedeh%Mousaviasl%NULL%1,             Esmat%Radmanesh%NULL%1,             Saeed%Jelvay%NULL%1,             Saeid%Bitaraf%NULL%1,             Bryony%Simmons%NULL%0,             Hannah%Wentzel%NULL%0,             Andrew%Hill%NULL%0,             Anahita%Sadeghi%NULL%1,             James%Freeman%NULL%1,             Shokrollah%Salmanzadeh%NULL%1,             Hani%Esmaeilian%NULL%1,             Morteza%Mobarak%NULL%1,             Ramin%Tabibi%NULL%1,             Amir Hosein%Jafari Kashi%NULL%1,             Zahra%Lotfi%NULL%1,             Seyed Mehdi%Talebzadeh%NULL%1,             Aseni%Wickramatillake%NULL%1,             Mahboobeh%Momtazan%NULL%1,             Majid%Hajizadeh Farsani%NULL%1,             Sedigheh%Marjani%NULL%1,             Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,             Majid%Saeedi%NULL%0,             Reza%Alizadeh-Navaei%NULL%1,             Akbar%Hedayatizadeh-Omran%NULL%1,             Shahin%Merat%NULL%0,             Hannah%Wentzel%NULL%0,             Hannah%Wentzel%NULL%0,             Jacob%Levi%NULL%0,             Andrew%Hill%NULL%0,             Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,             Hossein%Khalili%NULL%1,             Zahra%Ahmadinejad%NULL%1,             Hamid%Emadi Kouchak%NULL%1,             Sirous%Jafari%NULL%1,             Sayed Ali%Dehghan Manshadi%NULL%1,             Mehrnaz%Rasolinejad%NULL%1,             Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,             Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,             Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,             Farid%Najafi%NULL%1,             Ronak%Miladi%NULL%1,             Zeinab%Mohseni Afshar%NULL%1,             Feizollah%Mansouri%NULL%1,             Zohreh%Rahimi%NULL%1,             Maria%Shirvani%NULL%1,             Mehdi%Salimi%NULL%1,             Siavash%Vaziri%NULL%1,             Alireza%Janbakhsh%NULL%1,             Fatemeh%Khosravi Shadmani%NULL%1,             Arezoo%Bozorgomid%NULL%1,             Mohammad Hossein%Zamanian%NULL%1,             Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,             Ali%Ali Asgari%NULL%2,             Ali%Ali Asgari%NULL%0,             Alireza%Norouzi%NULL%1,             Zahedin%Kheiri%NULL%1,             Amir%Anushirvani%NULL%1,             Mahnaz%Montazeri%NULL%1,             Hadiseh%Hosamirudsai%NULL%1,             Shirin%Afhami%NULL%1,             Elham%Akbarpour%NULL%1,             Rasoul%Aliannejad%NULL%2,             Rasoul%Aliannejad%NULL%0,             Amir Reza%Radmard%NULL%1,             Amir H%Davarpanah%NULL%1,             Jacob%Levi%NULL%0,             Hannah%Wentzel%NULL%0,             Ambar%Qavi%NULL%1,             Anna%Garratt%NULL%0,             Bryony%Simmons%NULL%0,             Andrew%Hill%NULL%0,             Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,             Ehab%Kamal%NULL%2,             Ehab%Kamal%NULL%0,             Mohsen%Salama%NULL%2,             Mohsen%Salama%NULL%0,             Tary%Salman%NULL%1,             Alyaa%Sabry%NULL%1,             Wael%Abdel‐Razek%NULL%1,             Sherine%Helmy%NULL%1,             Ahmed%Abdelgwad%NULL%1,             Neamt%Sakr%NULL%1,             Mohamed%Elgazzar%NULL%1,             Mohamed%Einar%NULL%1,             Mahmoud%Farouk%NULL%1,             Mounir%Saif%NULL%1,             Ismail%Shehab%NULL%1,             Eman%El‐hosieny%NULL%1,             Mai%Mansour%NULL%1,             Doaa%Mahdi%NULL%1,             El‐Sayed%Tharwa%NULL%1,             Mostafa%Salah%NULL%1,             Ola%Elrouby%NULL%1,             Imam%Waked%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -923,7 +947,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -952,7 +976,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -981,7 +1005,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1010,7 +1034,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1039,7 +1063,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1068,7 +1092,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1097,7 +1121,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1126,7 +1150,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/17.xlsx
+++ b/Covid_19_Dataset_and_References/References/17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="161">
   <si>
     <t>Doi</t>
   </si>
@@ -598,6 +598,30 @@
   </si>
   <si>
     <t>[Sherif%Abbass%sherif533@hotmail.com%1,             Ehab%Kamal%NULL%2,             Ehab%Kamal%NULL%0,             Mohsen%Salama%NULL%2,             Mohsen%Salama%NULL%0,             Tary%Salman%NULL%1,             Alyaa%Sabry%NULL%1,             Wael%Abdel‐Razek%NULL%1,             Sherine%Helmy%NULL%1,             Ahmed%Abdelgwad%NULL%1,             Neamt%Sakr%NULL%1,             Mohamed%Elgazzar%NULL%1,             Mohamed%Einar%NULL%1,             Mahmoud%Farouk%NULL%1,             Mounir%Saif%NULL%1,             Ismail%Shehab%NULL%1,             Eman%El‐hosieny%NULL%1,             Mai%Mansour%NULL%1,             Doaa%Mahdi%NULL%1,             El‐Sayed%Tharwa%NULL%1,             Mostafa%Salah%NULL%1,             Ola%Elrouby%NULL%1,             Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,              Siavash%Moradi%NULL%1,              Amir Mohammad%Shabani%NULL%1,              Farhang%Babamahmoodi%NULL%2,              Farhang%Babamahmoodi%NULL%0,              Ali Reza%Davoudi Badabi%NULL%1,              Lotfollah%Davoudi%NULL%1,              Ahmad%Alikhani%NULL%1,              Akbar%Hedayatizadeh Omran%NULL%1,              Majid%Saeedi%NULL%2,              Shahin%Merat%NULL%3,              Hannah%Wentzel%NULL%6,              Hannah%Wentzel%NULL%0,              Anna%Garratt%NULL%2,              Jacob%Levi%NULL%3,              Bryony%Simmons%NULL%3,              Andrew%Hill%NULL%4,              Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%1,        Sherief%Abd-Elsalam%xref no email%1,        Tamer%Elbaz%xref no email%1,        Wafaa%El-Akel%xref no email%1,        Ahmed%Cordie%xref no email%1,        Tamer%Elhadidy%xref no email%1,        Hatem%Elalfy%xref no email%1,        Khaled%Farid%xref no email%1,        Mohamed%Elegezy%xref no email%1,        Adel%El-Badrawy%xref no email%1,        Mustafa%Neamatallah%xref no email%1,        Mohamed%Abd Elghafar%xref no email%1,        Marwa%Salama%xref no email%1,        Mohamed%AbdAllah%xref no email%1,        Mahmoud%Essam%xref no email%1,        Mostafa%El-Shazly%xref no email%1,        Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,              Sajedeh%Mousaviasl%NULL%1,              Esmat%Radmanesh%NULL%1,              Saeed%Jelvay%NULL%1,              Saeid%Bitaraf%NULL%1,              Bryony%Simmons%NULL%0,              Hannah%Wentzel%NULL%0,              Andrew%Hill%NULL%0,              Anahita%Sadeghi%NULL%1,              James%Freeman%NULL%1,              Shokrollah%Salmanzadeh%NULL%1,              Hani%Esmaeilian%NULL%1,              Morteza%Mobarak%NULL%1,              Ramin%Tabibi%NULL%1,              Amir Hosein%Jafari Kashi%NULL%1,              Zahra%Lotfi%NULL%1,              Seyed Mehdi%Talebzadeh%NULL%1,              Aseni%Wickramatillake%NULL%1,              Mahboobeh%Momtazan%NULL%1,              Majid%Hajizadeh Farsani%NULL%1,              Sedigheh%Marjani%NULL%1,              Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,              Majid%Saeedi%NULL%0,              Reza%Alizadeh-Navaei%NULL%1,              Akbar%Hedayatizadeh-Omran%NULL%1,              Shahin%Merat%NULL%0,              Hannah%Wentzel%NULL%0,              Hannah%Wentzel%NULL%0,              Jacob%Levi%NULL%0,              Andrew%Hill%NULL%0,              Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,              Hossein%Khalili%NULL%1,              Zahra%Ahmadinejad%NULL%1,              Hamid%Emadi Kouchak%NULL%1,              Sirous%Jafari%NULL%1,              Sayed Ali%Dehghan Manshadi%NULL%1,              Mehrnaz%Rasolinejad%NULL%1,              Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,              Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,              Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,              Farid%Najafi%NULL%1,              Ronak%Miladi%NULL%1,              Zeinab%Mohseni Afshar%NULL%1,              Feizollah%Mansouri%NULL%1,              Zohreh%Rahimi%NULL%1,              Maria%Shirvani%NULL%1,              Mehdi%Salimi%NULL%1,              Siavash%Vaziri%NULL%1,              Alireza%Janbakhsh%NULL%1,              Fatemeh%Khosravi Shadmani%NULL%1,              Arezoo%Bozorgomid%NULL%1,              Mohammad Hossein%Zamanian%NULL%1,              Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,              Ali%Ali Asgari%NULL%2,              Ali%Ali Asgari%NULL%0,              Alireza%Norouzi%NULL%1,              Zahedin%Kheiri%NULL%1,              Amir%Anushirvani%NULL%1,              Mahnaz%Montazeri%NULL%1,              Hadiseh%Hosamirudsai%NULL%1,              Shirin%Afhami%NULL%1,              Elham%Akbarpour%NULL%1,              Rasoul%Aliannejad%NULL%2,              Rasoul%Aliannejad%NULL%0,              Amir Reza%Radmard%NULL%1,              Amir H%Davarpanah%NULL%1,              Jacob%Levi%NULL%0,              Hannah%Wentzel%NULL%0,              Ambar%Qavi%NULL%1,              Anna%Garratt%NULL%0,              Bryony%Simmons%NULL%0,              Andrew%Hill%NULL%0,              Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,              Ehab%Kamal%NULL%2,              Ehab%Kamal%NULL%0,              Mohsen%Salama%NULL%2,              Mohsen%Salama%NULL%0,              Tary%Salman%NULL%1,              Alyaa%Sabry%NULL%1,              Wael%Abdel‐Razek%NULL%1,              Sherine%Helmy%NULL%1,              Ahmed%Abdelgwad%NULL%1,              Neamt%Sakr%NULL%1,              Mohamed%Elgazzar%NULL%1,              Mohamed%Einar%NULL%1,              Mahmoud%Farouk%NULL%1,              Mounir%Saif%NULL%1,              Ismail%Shehab%NULL%1,              Eman%El‐hosieny%NULL%1,              Mai%Mansour%NULL%1,              Doaa%Mahdi%NULL%1,              El‐Sayed%Tharwa%NULL%1,              Mostafa%Salah%NULL%1,              Ola%Elrouby%NULL%1,              Imam%Waked%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -947,7 +971,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -976,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1005,7 +1029,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1034,7 +1058,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1063,7 +1087,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1092,7 +1116,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1121,7 +1145,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1150,7 +1174,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/17.xlsx
+++ b/Covid_19_Dataset_and_References/References/17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="177">
   <si>
     <t>Doi</t>
   </si>
@@ -622,6 +622,54 @@
   </si>
   <si>
     <t>[Sherif%Abbass%sherif533@hotmail.com%1,              Ehab%Kamal%NULL%2,              Ehab%Kamal%NULL%0,              Mohsen%Salama%NULL%2,              Mohsen%Salama%NULL%0,              Tary%Salman%NULL%1,              Alyaa%Sabry%NULL%1,              Wael%Abdel‐Razek%NULL%1,              Sherine%Helmy%NULL%1,              Ahmed%Abdelgwad%NULL%1,              Neamt%Sakr%NULL%1,              Mohamed%Elgazzar%NULL%1,              Mohamed%Einar%NULL%1,              Mahmoud%Farouk%NULL%1,              Mounir%Saif%NULL%1,              Ismail%Shehab%NULL%1,              Eman%El‐hosieny%NULL%1,              Mai%Mansour%NULL%1,              Doaa%Mahdi%NULL%1,              El‐Sayed%Tharwa%NULL%1,              Mostafa%Salah%NULL%1,              Ola%Elrouby%NULL%1,              Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,               Siavash%Moradi%NULL%1,               Amir Mohammad%Shabani%NULL%1,               Farhang%Babamahmoodi%NULL%2,               Farhang%Babamahmoodi%NULL%0,               Ali Reza%Davoudi Badabi%NULL%1,               Lotfollah%Davoudi%NULL%1,               Ahmad%Alikhani%NULL%1,               Akbar%Hedayatizadeh Omran%NULL%1,               Majid%Saeedi%NULL%2,               Shahin%Merat%NULL%3,               Hannah%Wentzel%NULL%6,               Hannah%Wentzel%NULL%0,               Anna%Garratt%NULL%2,               Jacob%Levi%NULL%3,               Bryony%Simmons%NULL%3,               Andrew%Hill%NULL%4,               Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%1,         Sherief%Abd-Elsalam%xref no email%1,         Tamer%Elbaz%xref no email%1,         Wafaa%El-Akel%xref no email%1,         Ahmed%Cordie%xref no email%1,         Tamer%Elhadidy%xref no email%1,         Hatem%Elalfy%xref no email%1,         Khaled%Farid%xref no email%1,         Mohamed%Elegezy%xref no email%1,         Adel%El-Badrawy%xref no email%1,         Mustafa%Neamatallah%xref no email%1,         Mohamed%Abd Elghafar%xref no email%1,         Marwa%Salama%xref no email%1,         Mohamed%AbdAllah%xref no email%1,         Mahmoud%Essam%xref no email%1,         Mostafa%El-Shazly%xref no email%1,         Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,               Sajedeh%Mousaviasl%NULL%1,               Esmat%Radmanesh%NULL%1,               Saeed%Jelvay%NULL%1,               Saeid%Bitaraf%NULL%1,               Bryony%Simmons%NULL%0,               Hannah%Wentzel%NULL%0,               Andrew%Hill%NULL%0,               Anahita%Sadeghi%NULL%1,               James%Freeman%NULL%1,               Shokrollah%Salmanzadeh%NULL%1,               Hani%Esmaeilian%NULL%1,               Morteza%Mobarak%NULL%1,               Ramin%Tabibi%NULL%1,               Amir Hosein%Jafari Kashi%NULL%1,               Zahra%Lotfi%NULL%1,               Seyed Mehdi%Talebzadeh%NULL%1,               Aseni%Wickramatillake%NULL%1,               Mahboobeh%Momtazan%NULL%1,               Majid%Hajizadeh Farsani%NULL%1,               Sedigheh%Marjani%NULL%1,               Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,               Majid%Saeedi%NULL%0,               Reza%Alizadeh-Navaei%NULL%1,               Akbar%Hedayatizadeh-Omran%NULL%1,               Shahin%Merat%NULL%0,               Hannah%Wentzel%NULL%0,               Hannah%Wentzel%NULL%0,               Jacob%Levi%NULL%0,               Andrew%Hill%NULL%0,               Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,               Hossein%Khalili%NULL%1,               Zahra%Ahmadinejad%NULL%1,               Hamid%Emadi Kouchak%NULL%1,               Sirous%Jafari%NULL%1,               Sayed Ali%Dehghan Manshadi%NULL%1,               Mehrnaz%Rasolinejad%NULL%1,               Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,               Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,               Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,               Farid%Najafi%NULL%1,               Ronak%Miladi%NULL%1,               Zeinab%Mohseni Afshar%NULL%1,               Feizollah%Mansouri%NULL%1,               Zohreh%Rahimi%NULL%1,               Maria%Shirvani%NULL%1,               Mehdi%Salimi%NULL%1,               Siavash%Vaziri%NULL%1,               Alireza%Janbakhsh%NULL%1,               Fatemeh%Khosravi Shadmani%NULL%1,               Arezoo%Bozorgomid%NULL%1,               Mohammad Hossein%Zamanian%NULL%1,               Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,               Ali%Ali Asgari%NULL%2,               Ali%Ali Asgari%NULL%0,               Alireza%Norouzi%NULL%1,               Zahedin%Kheiri%NULL%1,               Amir%Anushirvani%NULL%1,               Mahnaz%Montazeri%NULL%1,               Hadiseh%Hosamirudsai%NULL%1,               Shirin%Afhami%NULL%1,               Elham%Akbarpour%NULL%1,               Rasoul%Aliannejad%NULL%2,               Rasoul%Aliannejad%NULL%0,               Amir Reza%Radmard%NULL%1,               Amir H%Davarpanah%NULL%1,               Jacob%Levi%NULL%0,               Hannah%Wentzel%NULL%0,               Ambar%Qavi%NULL%1,               Anna%Garratt%NULL%0,               Bryony%Simmons%NULL%0,               Andrew%Hill%NULL%0,               Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,               Ehab%Kamal%NULL%2,               Ehab%Kamal%NULL%0,               Mohsen%Salama%NULL%2,               Mohsen%Salama%NULL%0,               Tary%Salman%NULL%1,               Alyaa%Sabry%NULL%1,               Wael%Abdel‐Razek%NULL%1,               Sherine%Helmy%NULL%1,               Ahmed%Abdelgwad%NULL%1,               Neamt%Sakr%NULL%1,               Mohamed%Elgazzar%NULL%1,               Mohamed%Einar%NULL%1,               Mahmoud%Farouk%NULL%1,               Mounir%Saif%NULL%1,               Ismail%Shehab%NULL%1,               Eman%El‐hosieny%NULL%1,               Mai%Mansour%NULL%1,               Doaa%Mahdi%NULL%1,               El‐Sayed%Tharwa%NULL%1,               Mostafa%Salah%NULL%1,               Ola%Elrouby%NULL%1,               Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,                Siavash%Moradi%NULL%1,                Amir Mohammad%Shabani%NULL%1,                Farhang%Babamahmoodi%NULL%2,                Farhang%Babamahmoodi%NULL%0,                Ali Reza%Davoudi Badabi%NULL%1,                Lotfollah%Davoudi%NULL%1,                Ahmad%Alikhani%NULL%1,                Akbar%Hedayatizadeh Omran%NULL%1,                Majid%Saeedi%NULL%2,                Shahin%Merat%NULL%3,                Hannah%Wentzel%NULL%6,                Hannah%Wentzel%NULL%0,                Anna%Garratt%NULL%2,                Jacob%Levi%NULL%3,                Bryony%Simmons%NULL%3,                Andrew%Hill%NULL%4,                Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%1,          Sherief%Abd-Elsalam%xref no email%1,          Tamer%Elbaz%xref no email%1,          Wafaa%El-Akel%xref no email%1,          Ahmed%Cordie%xref no email%1,          Tamer%Elhadidy%xref no email%1,          Hatem%Elalfy%xref no email%1,          Khaled%Farid%xref no email%1,          Mohamed%Elegezy%xref no email%1,          Adel%El-Badrawy%xref no email%1,          Mustafa%Neamatallah%xref no email%1,          Mohamed%Abd Elghafar%xref no email%1,          Marwa%Salama%xref no email%1,          Mohamed%AbdAllah%xref no email%1,          Mahmoud%Essam%xref no email%1,          Mostafa%El-Shazly%xref no email%1,          Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,                Sajedeh%Mousaviasl%NULL%1,                Esmat%Radmanesh%NULL%1,                Saeed%Jelvay%NULL%1,                Saeid%Bitaraf%NULL%1,                Bryony%Simmons%NULL%0,                Hannah%Wentzel%NULL%0,                Andrew%Hill%NULL%0,                Anahita%Sadeghi%NULL%1,                James%Freeman%NULL%1,                Shokrollah%Salmanzadeh%NULL%1,                Hani%Esmaeilian%NULL%1,                Morteza%Mobarak%NULL%1,                Ramin%Tabibi%NULL%1,                Amir Hosein%Jafari Kashi%NULL%1,                Zahra%Lotfi%NULL%1,                Seyed Mehdi%Talebzadeh%NULL%1,                Aseni%Wickramatillake%NULL%1,                Mahboobeh%Momtazan%NULL%1,                Majid%Hajizadeh Farsani%NULL%1,                Sedigheh%Marjani%NULL%1,                Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,                Majid%Saeedi%NULL%0,                Reza%Alizadeh-Navaei%NULL%1,                Akbar%Hedayatizadeh-Omran%NULL%1,                Shahin%Merat%NULL%0,                Hannah%Wentzel%NULL%0,                Hannah%Wentzel%NULL%0,                Jacob%Levi%NULL%0,                Andrew%Hill%NULL%0,                Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,                Hossein%Khalili%NULL%1,                Zahra%Ahmadinejad%NULL%1,                Hamid%Emadi Kouchak%NULL%1,                Sirous%Jafari%NULL%1,                Sayed Ali%Dehghan Manshadi%NULL%1,                Mehrnaz%Rasolinejad%NULL%1,                Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,                Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,                Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,                Farid%Najafi%NULL%1,                Ronak%Miladi%NULL%1,                Zeinab%Mohseni Afshar%NULL%1,                Feizollah%Mansouri%NULL%1,                Zohreh%Rahimi%NULL%1,                Maria%Shirvani%NULL%1,                Mehdi%Salimi%NULL%1,                Siavash%Vaziri%NULL%1,                Alireza%Janbakhsh%NULL%1,                Fatemeh%Khosravi Shadmani%NULL%1,                Arezoo%Bozorgomid%NULL%1,                Mohammad Hossein%Zamanian%NULL%1,                Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,                Ali%Ali Asgari%NULL%2,                Ali%Ali Asgari%NULL%0,                Alireza%Norouzi%NULL%1,                Zahedin%Kheiri%NULL%1,                Amir%Anushirvani%NULL%1,                Mahnaz%Montazeri%NULL%1,                Hadiseh%Hosamirudsai%NULL%1,                Shirin%Afhami%NULL%1,                Elham%Akbarpour%NULL%1,                Rasoul%Aliannejad%NULL%2,                Rasoul%Aliannejad%NULL%0,                Amir Reza%Radmard%NULL%1,                Amir H%Davarpanah%NULL%1,                Jacob%Levi%NULL%0,                Hannah%Wentzel%NULL%0,                Ambar%Qavi%NULL%1,                Anna%Garratt%NULL%0,                Bryony%Simmons%NULL%0,                Andrew%Hill%NULL%0,                Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,                Ehab%Kamal%NULL%2,                Ehab%Kamal%NULL%0,                Mohsen%Salama%NULL%2,                Mohsen%Salama%NULL%0,                Tary%Salman%NULL%1,                Alyaa%Sabry%NULL%1,                Wael%Abdel‐Razek%NULL%1,                Sherine%Helmy%NULL%1,                Ahmed%Abdelgwad%NULL%1,                Neamt%Sakr%NULL%1,                Mohamed%Elgazzar%NULL%1,                Mohamed%Einar%NULL%1,                Mahmoud%Farouk%NULL%1,                Mounir%Saif%NULL%1,                Ismail%Shehab%NULL%1,                Eman%El‐hosieny%NULL%1,                Mai%Mansour%NULL%1,                Doaa%Mahdi%NULL%1,                El‐Sayed%Tharwa%NULL%1,                Mostafa%Salah%NULL%1,                Ola%Elrouby%NULL%1,                Imam%Waked%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1019,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1000,7 +1048,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1029,7 +1077,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1058,7 +1106,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1087,7 +1135,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1116,7 +1164,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1145,7 +1193,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1174,7 +1222,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/17.xlsx
+++ b/Covid_19_Dataset_and_References/References/17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="185">
   <si>
     <t>Doi</t>
   </si>
@@ -670,6 +670,30 @@
   </si>
   <si>
     <t>[Sherif%Abbass%sherif533@hotmail.com%1,                Ehab%Kamal%NULL%2,                Ehab%Kamal%NULL%0,                Mohsen%Salama%NULL%2,                Mohsen%Salama%NULL%0,                Tary%Salman%NULL%1,                Alyaa%Sabry%NULL%1,                Wael%Abdel‐Razek%NULL%1,                Sherine%Helmy%NULL%1,                Ahmed%Abdelgwad%NULL%1,                Neamt%Sakr%NULL%1,                Mohamed%Elgazzar%NULL%1,                Mohamed%Einar%NULL%1,                Mahmoud%Farouk%NULL%1,                Mounir%Saif%NULL%1,                Ismail%Shehab%NULL%1,                Eman%El‐hosieny%NULL%1,                Mai%Mansour%NULL%1,                Doaa%Mahdi%NULL%1,                El‐Sayed%Tharwa%NULL%1,                Mostafa%Salah%NULL%1,                Ola%Elrouby%NULL%1,                Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,                 Siavash%Moradi%NULL%1,                 Amir Mohammad%Shabani%NULL%1,                 Farhang%Babamahmoodi%NULL%2,                 Farhang%Babamahmoodi%NULL%0,                 Ali Reza%Davoudi Badabi%NULL%1,                 Lotfollah%Davoudi%NULL%1,                 Ahmad%Alikhani%NULL%1,                 Akbar%Hedayatizadeh Omran%NULL%1,                 Majid%Saeedi%NULL%2,                 Shahin%Merat%NULL%3,                 Hannah%Wentzel%NULL%6,                 Hannah%Wentzel%NULL%0,                 Anna%Garratt%NULL%2,                 Jacob%Levi%NULL%3,                 Bryony%Simmons%NULL%3,                 Andrew%Hill%NULL%4,                 Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%1,           Sherief%Abd-Elsalam%xref no email%1,           Tamer%Elbaz%xref no email%1,           Wafaa%El-Akel%xref no email%1,           Ahmed%Cordie%xref no email%1,           Tamer%Elhadidy%xref no email%1,           Hatem%Elalfy%xref no email%1,           Khaled%Farid%xref no email%1,           Mohamed%Elegezy%xref no email%1,           Adel%El-Badrawy%xref no email%1,           Mustafa%Neamatallah%xref no email%1,           Mohamed%Abd Elghafar%xref no email%1,           Marwa%Salama%xref no email%1,           Mohamed%AbdAllah%xref no email%1,           Mahmoud%Essam%xref no email%1,           Mostafa%El-Shazly%xref no email%1,           Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,                 Sajedeh%Mousaviasl%NULL%1,                 Esmat%Radmanesh%NULL%1,                 Saeed%Jelvay%NULL%1,                 Saeid%Bitaraf%NULL%1,                 Bryony%Simmons%NULL%0,                 Hannah%Wentzel%NULL%0,                 Andrew%Hill%NULL%0,                 Anahita%Sadeghi%NULL%1,                 James%Freeman%NULL%1,                 Shokrollah%Salmanzadeh%NULL%1,                 Hani%Esmaeilian%NULL%1,                 Morteza%Mobarak%NULL%1,                 Ramin%Tabibi%NULL%1,                 Amir Hosein%Jafari Kashi%NULL%1,                 Zahra%Lotfi%NULL%1,                 Seyed Mehdi%Talebzadeh%NULL%1,                 Aseni%Wickramatillake%NULL%1,                 Mahboobeh%Momtazan%NULL%1,                 Majid%Hajizadeh Farsani%NULL%1,                 Sedigheh%Marjani%NULL%1,                 Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,                 Majid%Saeedi%NULL%0,                 Reza%Alizadeh-Navaei%NULL%1,                 Akbar%Hedayatizadeh-Omran%NULL%1,                 Shahin%Merat%NULL%0,                 Hannah%Wentzel%NULL%0,                 Hannah%Wentzel%NULL%0,                 Jacob%Levi%NULL%0,                 Andrew%Hill%NULL%0,                 Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,                 Hossein%Khalili%NULL%1,                 Zahra%Ahmadinejad%NULL%1,                 Hamid%Emadi Kouchak%NULL%1,                 Sirous%Jafari%NULL%1,                 Sayed Ali%Dehghan Manshadi%NULL%1,                 Mehrnaz%Rasolinejad%NULL%1,                 Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,                 Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,                 Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,                 Farid%Najafi%NULL%1,                 Ronak%Miladi%NULL%1,                 Zeinab%Mohseni Afshar%NULL%1,                 Feizollah%Mansouri%NULL%1,                 Zohreh%Rahimi%NULL%1,                 Maria%Shirvani%NULL%1,                 Mehdi%Salimi%NULL%1,                 Siavash%Vaziri%NULL%1,                 Alireza%Janbakhsh%NULL%1,                 Fatemeh%Khosravi Shadmani%NULL%1,                 Arezoo%Bozorgomid%NULL%1,                 Mohammad Hossein%Zamanian%NULL%1,                 Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,                 Ali%Ali Asgari%NULL%2,                 Ali%Ali Asgari%NULL%0,                 Alireza%Norouzi%NULL%1,                 Zahedin%Kheiri%NULL%1,                 Amir%Anushirvani%NULL%1,                 Mahnaz%Montazeri%NULL%1,                 Hadiseh%Hosamirudsai%NULL%1,                 Shirin%Afhami%NULL%1,                 Elham%Akbarpour%NULL%1,                 Rasoul%Aliannejad%NULL%2,                 Rasoul%Aliannejad%NULL%0,                 Amir Reza%Radmard%NULL%1,                 Amir H%Davarpanah%NULL%1,                 Jacob%Levi%NULL%0,                 Hannah%Wentzel%NULL%0,                 Ambar%Qavi%NULL%1,                 Anna%Garratt%NULL%0,                 Bryony%Simmons%NULL%0,                 Andrew%Hill%NULL%0,                 Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,                 Ehab%Kamal%NULL%2,                 Ehab%Kamal%NULL%0,                 Mohsen%Salama%NULL%2,                 Mohsen%Salama%NULL%0,                 Tary%Salman%NULL%1,                 Alyaa%Sabry%NULL%1,                 Wael%Abdel‐Razek%NULL%1,                 Sherine%Helmy%NULL%1,                 Ahmed%Abdelgwad%NULL%1,                 Neamt%Sakr%NULL%1,                 Mohamed%Elgazzar%NULL%1,                 Mohamed%Einar%NULL%1,                 Mahmoud%Farouk%NULL%1,                 Mounir%Saif%NULL%1,                 Ismail%Shehab%NULL%1,                 Eman%El‐hosieny%NULL%1,                 Mai%Mansour%NULL%1,                 Doaa%Mahdi%NULL%1,                 El‐Sayed%Tharwa%NULL%1,                 Mostafa%Salah%NULL%1,                 Ola%Elrouby%NULL%1,                 Imam%Waked%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1043,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1048,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1077,7 +1101,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1106,7 +1130,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1135,7 +1159,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1164,7 +1188,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1193,7 +1217,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1222,7 +1246,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/17.xlsx
+++ b/Covid_19_Dataset_and_References/References/17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="195">
   <si>
     <t>Doi</t>
   </si>
@@ -694,6 +694,36 @@
   </si>
   <si>
     <t>[Sherif%Abbass%sherif533@hotmail.com%1,                 Ehab%Kamal%NULL%2,                 Ehab%Kamal%NULL%0,                 Mohsen%Salama%NULL%2,                 Mohsen%Salama%NULL%0,                 Tary%Salman%NULL%1,                 Alyaa%Sabry%NULL%1,                 Wael%Abdel‐Razek%NULL%1,                 Sherine%Helmy%NULL%1,                 Ahmed%Abdelgwad%NULL%1,                 Neamt%Sakr%NULL%1,                 Mohamed%Elgazzar%NULL%1,                 Mohamed%Einar%NULL%1,                 Mahmoud%Farouk%NULL%1,                 Mounir%Saif%NULL%1,                 Ismail%Shehab%NULL%1,                 Eman%El‐hosieny%NULL%1,                 Mai%Mansour%NULL%1,                 Doaa%Mahdi%NULL%1,                 El‐Sayed%Tharwa%NULL%1,                 Mostafa%Salah%NULL%1,                 Ola%Elrouby%NULL%1,                 Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,                  Siavash%Moradi%NULL%1,                  Amir Mohammad%Shabani%NULL%1,                  Farhang%Babamahmoodi%NULL%2,                  Farhang%Babamahmoodi%NULL%0,                  Ali Reza%Davoudi Badabi%NULL%1,                  Lotfollah%Davoudi%NULL%1,                  Ahmad%Alikhani%NULL%1,                  Akbar%Hedayatizadeh Omran%NULL%1,                  Majid%Saeedi%NULL%2,                  Shahin%Merat%NULL%3,                  Hannah%Wentzel%NULL%6,                  Hannah%Wentzel%NULL%0,                  Anna%Garratt%NULL%2,                  Jacob%Levi%NULL%3,                  Bryony%Simmons%NULL%3,                  Andrew%Hill%NULL%4,                  Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%1,            Sherief%Abd-Elsalam%xref no email%1,            Tamer%Elbaz%xref no email%1,            Wafaa%El-Akel%xref no email%1,            Ahmed%Cordie%xref no email%1,            Tamer%Elhadidy%xref no email%1,            Hatem%Elalfy%xref no email%1,            Khaled%Farid%xref no email%1,            Mohamed%Elegezy%xref no email%1,            Adel%El-Badrawy%xref no email%1,            Mustafa%Neamatallah%xref no email%1,            Mohamed%Abd Elghafar%xref no email%1,            Marwa%Salama%xref no email%1,            Mohamed%AbdAllah%xref no email%1,            Mahmoud%Essam%xref no email%1,            Mostafa%El-Shazly%xref no email%1,            Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,                  Sajedeh%Mousaviasl%NULL%1,                  Esmat%Radmanesh%NULL%1,                  Saeed%Jelvay%NULL%1,                  Saeid%Bitaraf%NULL%1,                  Bryony%Simmons%NULL%0,                  Hannah%Wentzel%NULL%0,                  Andrew%Hill%NULL%0,                  Anahita%Sadeghi%NULL%1,                  James%Freeman%NULL%1,                  Shokrollah%Salmanzadeh%NULL%1,                  Hani%Esmaeilian%NULL%1,                  Morteza%Mobarak%NULL%1,                  Ramin%Tabibi%NULL%1,                  Amir Hosein%Jafari Kashi%NULL%1,                  Zahra%Lotfi%NULL%1,                  Seyed Mehdi%Talebzadeh%NULL%1,                  Aseni%Wickramatillake%NULL%1,                  Mahboobeh%Momtazan%NULL%1,                  Majid%Hajizadeh Farsani%NULL%1,                  Sedigheh%Marjani%NULL%1,                  Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,                  Majid%Saeedi%NULL%0,                  Reza%Alizadeh-Navaei%NULL%1,                  Akbar%Hedayatizadeh-Omran%NULL%1,                  Shahin%Merat%NULL%0,                  Hannah%Wentzel%NULL%0,                  Hannah%Wentzel%NULL%0,                  Jacob%Levi%NULL%0,                  Andrew%Hill%NULL%0,                  Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,                  Hossein%Khalili%NULL%1,                  Zahra%Ahmadinejad%NULL%1,                  Hamid%Emadi Kouchak%NULL%1,                  Sirous%Jafari%NULL%1,                  Sayed Ali%Dehghan Manshadi%NULL%1,                  Mehrnaz%Rasolinejad%NULL%1,                  Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,                  Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,                  Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,                  Farid%Najafi%NULL%1,                  Ronak%Miladi%NULL%1,                  Zeinab%Mohseni Afshar%NULL%1,                  Feizollah%Mansouri%NULL%1,                  Zohreh%Rahimi%NULL%1,                  Maria%Shirvani%NULL%1,                  Mehdi%Salimi%NULL%1,                  Siavash%Vaziri%NULL%1,                  Alireza%Janbakhsh%NULL%1,                  Fatemeh%Khosravi Shadmani%NULL%1,                  Arezoo%Bozorgomid%NULL%1,                  Mohammad Hossein%Zamanian%NULL%1,                  Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,                  Ali%Ali Asgari%NULL%2,                  Ali%Ali Asgari%NULL%0,                  Alireza%Norouzi%NULL%1,                  Zahedin%Kheiri%NULL%1,                  Amir%Anushirvani%NULL%1,                  Mahnaz%Montazeri%NULL%1,                  Hadiseh%Hosamirudsai%NULL%1,                  Shirin%Afhami%NULL%1,                  Elham%Akbarpour%NULL%1,                  Rasoul%Aliannejad%NULL%2,                  Rasoul%Aliannejad%NULL%0,                  Amir Reza%Radmard%NULL%1,                  Amir H%Davarpanah%NULL%1,                  Jacob%Levi%NULL%0,                  Hannah%Wentzel%NULL%0,                  Ambar%Qavi%NULL%1,                  Anna%Garratt%NULL%0,                  Bryony%Simmons%NULL%0,                  Andrew%Hill%NULL%0,                  Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,                  Ehab%Kamal%NULL%2,                  Ehab%Kamal%NULL%0,                  Mohsen%Salama%NULL%2,                  Mohsen%Salama%NULL%0,                  Tary%Salman%NULL%1,                  Alyaa%Sabry%NULL%1,                  Wael%Abdel‐Razek%NULL%1,                  Sherine%Helmy%NULL%1,                  Ahmed%Abdelgwad%NULL%1,                  Neamt%Sakr%NULL%1,                  Mohamed%Elgazzar%NULL%1,                  Mohamed%Einar%NULL%1,                  Mahmoud%Farouk%NULL%1,                  Mounir%Saif%NULL%1,                  Ismail%Shehab%NULL%1,                  Eman%El‐hosieny%NULL%1,                  Mai%Mansour%NULL%1,                  Doaa%Mahdi%NULL%1,                  El‐Sayed%Tharwa%NULL%1,                  Mostafa%Salah%NULL%1,                  Ola%Elrouby%NULL%1,                  Imam%Waked%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1073,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1055,7 +1085,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3">
@@ -1072,7 +1102,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1084,7 +1114,7 @@
         <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4">
@@ -1101,7 +1131,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1113,7 +1143,7 @@
         <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5">
@@ -1130,7 +1160,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1142,7 +1172,7 @@
         <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6">
@@ -1159,7 +1189,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1188,7 +1218,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1200,7 +1230,7 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8">
@@ -1217,7 +1247,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1229,7 +1259,7 @@
         <v>26</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9">
@@ -1246,7 +1276,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
@@ -1258,7 +1288,7 @@
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/17.xlsx
+++ b/Covid_19_Dataset_and_References/References/17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="203">
   <si>
     <t>Doi</t>
   </si>
@@ -724,6 +724,30 @@
   </si>
   <si>
     <t>[Sherif%Abbass%sherif533@hotmail.com%1,                  Ehab%Kamal%NULL%2,                  Ehab%Kamal%NULL%0,                  Mohsen%Salama%NULL%2,                  Mohsen%Salama%NULL%0,                  Tary%Salman%NULL%1,                  Alyaa%Sabry%NULL%1,                  Wael%Abdel‐Razek%NULL%1,                  Sherine%Helmy%NULL%1,                  Ahmed%Abdelgwad%NULL%1,                  Neamt%Sakr%NULL%1,                  Mohamed%Elgazzar%NULL%1,                  Mohamed%Einar%NULL%1,                  Mahmoud%Farouk%NULL%1,                  Mounir%Saif%NULL%1,                  Ismail%Shehab%NULL%1,                  Eman%El‐hosieny%NULL%1,                  Mai%Mansour%NULL%1,                  Doaa%Mahdi%NULL%1,                  El‐Sayed%Tharwa%NULL%1,                  Mostafa%Salah%NULL%1,                  Ola%Elrouby%NULL%1,                  Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,                   Siavash%Moradi%NULL%1,                   Amir Mohammad%Shabani%NULL%1,                   Farhang%Babamahmoodi%NULL%2,                   Farhang%Babamahmoodi%NULL%0,                   Ali Reza%Davoudi Badabi%NULL%1,                   Lotfollah%Davoudi%NULL%1,                   Ahmad%Alikhani%NULL%1,                   Akbar%Hedayatizadeh Omran%NULL%1,                   Majid%Saeedi%NULL%2,                   Shahin%Merat%NULL%3,                   Hannah%Wentzel%NULL%6,                   Hannah%Wentzel%NULL%0,                   Anna%Garratt%NULL%2,                   Jacob%Levi%NULL%3,                   Bryony%Simmons%NULL%3,                   Andrew%Hill%NULL%4,                   Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%1,             Sherief%Abd-Elsalam%xref no email%1,             Tamer%Elbaz%xref no email%1,             Wafaa%El-Akel%xref no email%1,             Ahmed%Cordie%xref no email%1,             Tamer%Elhadidy%xref no email%1,             Hatem%Elalfy%xref no email%1,             Khaled%Farid%xref no email%1,             Mohamed%Elegezy%xref no email%1,             Adel%El-Badrawy%xref no email%1,             Mustafa%Neamatallah%xref no email%1,             Mohamed%Abd Elghafar%xref no email%1,             Marwa%Salama%xref no email%1,             Mohamed%AbdAllah%xref no email%1,             Mahmoud%Essam%xref no email%1,             Mostafa%El-Shazly%xref no email%1,             Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,                   Sajedeh%Mousaviasl%NULL%1,                   Esmat%Radmanesh%NULL%1,                   Saeed%Jelvay%NULL%1,                   Saeid%Bitaraf%NULL%1,                   Bryony%Simmons%NULL%0,                   Hannah%Wentzel%NULL%0,                   Andrew%Hill%NULL%0,                   Anahita%Sadeghi%NULL%1,                   James%Freeman%NULL%1,                   Shokrollah%Salmanzadeh%NULL%1,                   Hani%Esmaeilian%NULL%1,                   Morteza%Mobarak%NULL%1,                   Ramin%Tabibi%NULL%1,                   Amir Hosein%Jafari Kashi%NULL%1,                   Zahra%Lotfi%NULL%1,                   Seyed Mehdi%Talebzadeh%NULL%1,                   Aseni%Wickramatillake%NULL%1,                   Mahboobeh%Momtazan%NULL%1,                   Majid%Hajizadeh Farsani%NULL%1,                   Sedigheh%Marjani%NULL%1,                   Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,                   Majid%Saeedi%NULL%0,                   Reza%Alizadeh-Navaei%NULL%1,                   Akbar%Hedayatizadeh-Omran%NULL%1,                   Shahin%Merat%NULL%0,                   Hannah%Wentzel%NULL%0,                   Hannah%Wentzel%NULL%0,                   Jacob%Levi%NULL%0,                   Andrew%Hill%NULL%0,                   Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,                   Hossein%Khalili%NULL%1,                   Zahra%Ahmadinejad%NULL%1,                   Hamid%Emadi Kouchak%NULL%1,                   Sirous%Jafari%NULL%1,                   Sayed Ali%Dehghan Manshadi%NULL%1,                   Mehrnaz%Rasolinejad%NULL%1,                   Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,                   Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,                   Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,                   Farid%Najafi%NULL%1,                   Ronak%Miladi%NULL%1,                   Zeinab%Mohseni Afshar%NULL%1,                   Feizollah%Mansouri%NULL%1,                   Zohreh%Rahimi%NULL%1,                   Maria%Shirvani%NULL%1,                   Mehdi%Salimi%NULL%1,                   Siavash%Vaziri%NULL%1,                   Alireza%Janbakhsh%NULL%1,                   Fatemeh%Khosravi Shadmani%NULL%1,                   Arezoo%Bozorgomid%NULL%1,                   Mohammad Hossein%Zamanian%NULL%1,                   Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,                   Ali%Ali Asgari%NULL%2,                   Ali%Ali Asgari%NULL%0,                   Alireza%Norouzi%NULL%1,                   Zahedin%Kheiri%NULL%1,                   Amir%Anushirvani%NULL%1,                   Mahnaz%Montazeri%NULL%1,                   Hadiseh%Hosamirudsai%NULL%1,                   Shirin%Afhami%NULL%1,                   Elham%Akbarpour%NULL%1,                   Rasoul%Aliannejad%NULL%2,                   Rasoul%Aliannejad%NULL%0,                   Amir Reza%Radmard%NULL%1,                   Amir H%Davarpanah%NULL%1,                   Jacob%Levi%NULL%0,                   Hannah%Wentzel%NULL%0,                   Ambar%Qavi%NULL%1,                   Anna%Garratt%NULL%0,                   Bryony%Simmons%NULL%0,                   Andrew%Hill%NULL%0,                   Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,                   Ehab%Kamal%NULL%2,                   Ehab%Kamal%NULL%0,                   Mohsen%Salama%NULL%2,                   Mohsen%Salama%NULL%0,                   Tary%Salman%NULL%1,                   Alyaa%Sabry%NULL%1,                   Wael%Abdel‐Razek%NULL%1,                   Sherine%Helmy%NULL%1,                   Ahmed%Abdelgwad%NULL%1,                   Neamt%Sakr%NULL%1,                   Mohamed%Elgazzar%NULL%1,                   Mohamed%Einar%NULL%1,                   Mahmoud%Farouk%NULL%1,                   Mounir%Saif%NULL%1,                   Ismail%Shehab%NULL%1,                   Eman%El‐hosieny%NULL%1,                   Mai%Mansour%NULL%1,                   Doaa%Mahdi%NULL%1,                   El‐Sayed%Tharwa%NULL%1,                   Mostafa%Salah%NULL%1,                   Ola%Elrouby%NULL%1,                   Imam%Waked%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1097,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1102,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1131,7 +1155,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1160,7 +1184,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1189,7 +1213,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1218,7 +1242,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1247,7 +1271,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1276,7 +1300,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>

--- a/Covid_19_Dataset_and_References/References/17.xlsx
+++ b/Covid_19_Dataset_and_References/References/17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="241">
   <si>
     <t>Doi</t>
   </si>
@@ -748,6 +748,120 @@
   </si>
   <si>
     <t>[Sherif%Abbass%sherif533@hotmail.com%1,                   Ehab%Kamal%NULL%2,                   Ehab%Kamal%NULL%0,                   Mohsen%Salama%NULL%2,                   Mohsen%Salama%NULL%0,                   Tary%Salman%NULL%1,                   Alyaa%Sabry%NULL%1,                   Wael%Abdel‐Razek%NULL%1,                   Sherine%Helmy%NULL%1,                   Ahmed%Abdelgwad%NULL%1,                   Neamt%Sakr%NULL%1,                   Mohamed%Elgazzar%NULL%1,                   Mohamed%Einar%NULL%1,                   Mahmoud%Farouk%NULL%1,                   Mounir%Saif%NULL%1,                   Ismail%Shehab%NULL%1,                   Eman%El‐hosieny%NULL%1,                   Mai%Mansour%NULL%1,                   Doaa%Mahdi%NULL%1,                   El‐Sayed%Tharwa%NULL%1,                   Mostafa%Salah%NULL%1,                   Ola%Elrouby%NULL%1,                   Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,                    Siavash%Moradi%NULL%1,                    Amir Mohammad%Shabani%NULL%1,                    Farhang%Babamahmoodi%NULL%2,                    Farhang%Babamahmoodi%NULL%0,                    Ali Reza%Davoudi Badabi%NULL%1,                    Lotfollah%Davoudi%NULL%1,                    Ahmad%Alikhani%NULL%1,                    Akbar%Hedayatizadeh Omran%NULL%1,                    Majid%Saeedi%NULL%2,                    Shahin%Merat%NULL%3,                    Hannah%Wentzel%NULL%6,                    Hannah%Wentzel%NULL%0,                    Anna%Garratt%NULL%2,                    Jacob%Levi%NULL%3,                    Bryony%Simmons%NULL%3,                    Andrew%Hill%NULL%4,                    Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mahmoud%El-Bendary%xref no email%0, Sherief%Abd-Elsalam%xref no email%1, Tamer%Elbaz%xref no email%1, Wafaa%El-Akel%xref no email%1, Ahmed%Cordie%xref no email%1, Tamer%Elhadidy%xref no email%1, Hatem%Elalfy%xref no email%1, Khaled%Farid%xref no email%1, Mohamed%Elegezy%xref no email%1, Adel%El-Badrawy%xref no email%1, Mustafa%Neamatallah%xref no email%1, Mohamed%Abd Elghafar%xref no email%1, Marwa%Salama%xref no email%1, Mohamed%AbdAllah%xref no email%1, Mahmoud%Essam%xref no email%1, Mostafa%El-Shazly%xref no email%1, Gamal%Esmat%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Informa UK Limited</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,                    Sajedeh%Mousaviasl%NULL%1,                    Esmat%Radmanesh%NULL%1,                    Saeed%Jelvay%NULL%1,                    Saeid%Bitaraf%NULL%1,                    Bryony%Simmons%NULL%0,                    Hannah%Wentzel%NULL%0,                    Andrew%Hill%NULL%0,                    Anahita%Sadeghi%NULL%1,                    James%Freeman%NULL%1,                    Shokrollah%Salmanzadeh%NULL%1,                    Hani%Esmaeilian%NULL%1,                    Morteza%Mobarak%NULL%1,                    Ramin%Tabibi%NULL%1,                    Amir Hosein%Jafari Kashi%NULL%1,                    Zahra%Lotfi%NULL%1,                    Seyed Mehdi%Talebzadeh%NULL%1,                    Aseni%Wickramatillake%NULL%1,                    Mahboobeh%Momtazan%NULL%1,                    Majid%Hajizadeh Farsani%NULL%1,                    Sedigheh%Marjani%NULL%1,                    Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,                    Majid%Saeedi%NULL%0,                    Reza%Alizadeh-Navaei%NULL%1,                    Akbar%Hedayatizadeh-Omran%NULL%1,                    Shahin%Merat%NULL%0,                    Hannah%Wentzel%NULL%0,                    Hannah%Wentzel%NULL%0,                    Jacob%Levi%NULL%0,                    Andrew%Hill%NULL%0,                    Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,                    Hossein%Khalili%NULL%1,                    Zahra%Ahmadinejad%NULL%1,                    Hamid%Emadi Kouchak%NULL%1,                    Sirous%Jafari%NULL%1,                    Sayed Ali%Dehghan Manshadi%NULL%1,                    Mehrnaz%Rasolinejad%NULL%1,                    Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,                    Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,                    Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,                    Farid%Najafi%NULL%1,                    Ronak%Miladi%NULL%1,                    Zeinab%Mohseni Afshar%NULL%1,                    Feizollah%Mansouri%NULL%1,                    Zohreh%Rahimi%NULL%1,                    Maria%Shirvani%NULL%1,                    Mehdi%Salimi%NULL%1,                    Siavash%Vaziri%NULL%1,                    Alireza%Janbakhsh%NULL%1,                    Fatemeh%Khosravi Shadmani%NULL%1,                    Arezoo%Bozorgomid%NULL%1,                    Mohammad Hossein%Zamanian%NULL%1,                    Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,                    Ali%Ali Asgari%NULL%2,                    Ali%Ali Asgari%NULL%0,                    Alireza%Norouzi%NULL%1,                    Zahedin%Kheiri%NULL%1,                    Amir%Anushirvani%NULL%1,                    Mahnaz%Montazeri%NULL%1,                    Hadiseh%Hosamirudsai%NULL%1,                    Shirin%Afhami%NULL%1,                    Elham%Akbarpour%NULL%1,                    Rasoul%Aliannejad%NULL%2,                    Rasoul%Aliannejad%NULL%0,                    Amir Reza%Radmard%NULL%1,                    Amir H%Davarpanah%NULL%1,                    Jacob%Levi%NULL%0,                    Hannah%Wentzel%NULL%0,                    Ambar%Qavi%NULL%1,                    Anna%Garratt%NULL%0,                    Bryony%Simmons%NULL%0,                    Andrew%Hill%NULL%0,                    Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,                    Ehab%Kamal%NULL%2,                    Ehab%Kamal%NULL%0,                    Mohsen%Salama%NULL%2,                    Mohsen%Salama%NULL%0,                    Tary%Salman%NULL%1,                    Alyaa%Sabry%NULL%1,                    Wael%Abdel‐Razek%NULL%1,                    Sherine%Helmy%NULL%1,                    Ahmed%Abdelgwad%NULL%1,                    Neamt%Sakr%NULL%1,                    Mohamed%Elgazzar%NULL%1,                    Mohamed%Einar%NULL%1,                    Mahmoud%Farouk%NULL%1,                    Mounir%Saif%NULL%1,                    Ismail%Shehab%NULL%1,                    Eman%El‐hosieny%NULL%1,                    Mai%Mansour%NULL%1,                    Doaa%Mahdi%NULL%1,                    El‐Sayed%Tharwa%NULL%1,                    Mostafa%Salah%NULL%1,                    Ola%Elrouby%NULL%1,                    Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,                     Siavash%Moradi%NULL%1,                     Amir Mohammad%Shabani%NULL%1,                     Farhang%Babamahmoodi%NULL%2,                     Farhang%Babamahmoodi%NULL%0,                     Ali Reza%Davoudi Badabi%NULL%1,                     Lotfollah%Davoudi%NULL%1,                     Ahmad%Alikhani%NULL%1,                     Akbar%Hedayatizadeh Omran%NULL%1,                     Majid%Saeedi%NULL%2,                     Shahin%Merat%NULL%3,                     Hannah%Wentzel%NULL%6,                     Hannah%Wentzel%NULL%0,                     Anna%Garratt%NULL%2,                     Jacob%Levi%NULL%3,                     Bryony%Simmons%NULL%3,                     Andrew%Hill%NULL%4,                     Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,                     Sajedeh%Mousaviasl%NULL%1,                     Esmat%Radmanesh%NULL%1,                     Saeed%Jelvay%NULL%1,                     Saeid%Bitaraf%NULL%1,                     Bryony%Simmons%NULL%0,                     Hannah%Wentzel%NULL%0,                     Andrew%Hill%NULL%0,                     Anahita%Sadeghi%NULL%1,                     James%Freeman%NULL%1,                     Shokrollah%Salmanzadeh%NULL%1,                     Hani%Esmaeilian%NULL%1,                     Morteza%Mobarak%NULL%1,                     Ramin%Tabibi%NULL%1,                     Amir Hosein%Jafari Kashi%NULL%1,                     Zahra%Lotfi%NULL%1,                     Seyed Mehdi%Talebzadeh%NULL%1,                     Aseni%Wickramatillake%NULL%1,                     Mahboobeh%Momtazan%NULL%1,                     Majid%Hajizadeh Farsani%NULL%1,                     Sedigheh%Marjani%NULL%1,                     Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,                     Majid%Saeedi%NULL%0,                     Reza%Alizadeh-Navaei%NULL%1,                     Akbar%Hedayatizadeh-Omran%NULL%1,                     Shahin%Merat%NULL%0,                     Hannah%Wentzel%NULL%0,                     Hannah%Wentzel%NULL%0,                     Jacob%Levi%NULL%0,                     Andrew%Hill%NULL%0,                     Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,                     Hossein%Khalili%NULL%1,                     Zahra%Ahmadinejad%NULL%1,                     Hamid%Emadi Kouchak%NULL%1,                     Sirous%Jafari%NULL%1,                     Sayed Ali%Dehghan Manshadi%NULL%1,                     Mehrnaz%Rasolinejad%NULL%1,                     Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,                     Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,                     Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,                     Farid%Najafi%NULL%1,                     Ronak%Miladi%NULL%1,                     Zeinab%Mohseni Afshar%NULL%1,                     Feizollah%Mansouri%NULL%1,                     Zohreh%Rahimi%NULL%1,                     Maria%Shirvani%NULL%1,                     Mehdi%Salimi%NULL%1,                     Siavash%Vaziri%NULL%1,                     Alireza%Janbakhsh%NULL%1,                     Fatemeh%Khosravi Shadmani%NULL%1,                     Arezoo%Bozorgomid%NULL%1,                     Mohammad Hossein%Zamanian%NULL%1,                     Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,                     Ali%Ali Asgari%NULL%2,                     Ali%Ali Asgari%NULL%0,                     Alireza%Norouzi%NULL%1,                     Zahedin%Kheiri%NULL%1,                     Amir%Anushirvani%NULL%1,                     Mahnaz%Montazeri%NULL%1,                     Hadiseh%Hosamirudsai%NULL%1,                     Shirin%Afhami%NULL%1,                     Elham%Akbarpour%NULL%1,                     Rasoul%Aliannejad%NULL%2,                     Rasoul%Aliannejad%NULL%0,                     Amir Reza%Radmard%NULL%1,                     Amir H%Davarpanah%NULL%1,                     Jacob%Levi%NULL%0,                     Hannah%Wentzel%NULL%0,                     Ambar%Qavi%NULL%1,                     Anna%Garratt%NULL%0,                     Bryony%Simmons%NULL%0,                     Andrew%Hill%NULL%0,                     Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,                     Ehab%Kamal%NULL%2,                     Ehab%Kamal%NULL%0,                     Mohsen%Salama%NULL%2,                     Mohsen%Salama%NULL%0,                     Tary%Salman%NULL%1,                     Alyaa%Sabry%NULL%1,                     Wael%Abdel‐Razek%NULL%1,                     Sherine%Helmy%NULL%1,                     Ahmed%Abdelgwad%NULL%1,                     Neamt%Sakr%NULL%1,                     Mohamed%Elgazzar%NULL%1,                     Mohamed%Einar%NULL%1,                     Mahmoud%Farouk%NULL%1,                     Mounir%Saif%NULL%1,                     Ismail%Shehab%NULL%1,                     Eman%El‐hosieny%NULL%1,                     Mai%Mansour%NULL%1,                     Doaa%Mahdi%NULL%1,                     El‐Sayed%Tharwa%NULL%1,                     Mostafa%Salah%NULL%1,                     Ola%Elrouby%NULL%1,                     Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,                      Siavash%Moradi%NULL%1,                      Amir Mohammad%Shabani%NULL%1,                      Farhang%Babamahmoodi%NULL%2,                      Farhang%Babamahmoodi%NULL%0,                      Ali Reza%Davoudi Badabi%NULL%1,                      Lotfollah%Davoudi%NULL%1,                      Ahmad%Alikhani%NULL%1,                      Akbar%Hedayatizadeh Omran%NULL%1,                      Majid%Saeedi%NULL%2,                      Shahin%Merat%NULL%3,                      Hannah%Wentzel%NULL%6,                      Hannah%Wentzel%NULL%0,                      Anna%Garratt%NULL%2,                      Jacob%Levi%NULL%3,                      Bryony%Simmons%NULL%3,                      Andrew%Hill%NULL%4,                      Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,                      Sajedeh%Mousaviasl%NULL%1,                      Esmat%Radmanesh%NULL%1,                      Saeed%Jelvay%NULL%1,                      Saeid%Bitaraf%NULL%1,                      Bryony%Simmons%NULL%0,                      Hannah%Wentzel%NULL%0,                      Andrew%Hill%NULL%0,                      Anahita%Sadeghi%NULL%1,                      James%Freeman%NULL%1,                      Shokrollah%Salmanzadeh%NULL%1,                      Hani%Esmaeilian%NULL%1,                      Morteza%Mobarak%NULL%1,                      Ramin%Tabibi%NULL%1,                      Amir Hosein%Jafari Kashi%NULL%1,                      Zahra%Lotfi%NULL%1,                      Seyed Mehdi%Talebzadeh%NULL%1,                      Aseni%Wickramatillake%NULL%1,                      Mahboobeh%Momtazan%NULL%1,                      Majid%Hajizadeh Farsani%NULL%1,                      Sedigheh%Marjani%NULL%1,                      Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,                      Majid%Saeedi%NULL%0,                      Reza%Alizadeh-Navaei%NULL%1,                      Akbar%Hedayatizadeh-Omran%NULL%1,                      Shahin%Merat%NULL%0,                      Hannah%Wentzel%NULL%0,                      Hannah%Wentzel%NULL%0,                      Jacob%Levi%NULL%0,                      Andrew%Hill%NULL%0,                      Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,                      Hossein%Khalili%NULL%1,                      Zahra%Ahmadinejad%NULL%1,                      Hamid%Emadi Kouchak%NULL%1,                      Sirous%Jafari%NULL%1,                      Sayed Ali%Dehghan Manshadi%NULL%1,                      Mehrnaz%Rasolinejad%NULL%1,                      Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,                      Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,                      Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,                      Farid%Najafi%NULL%1,                      Ronak%Miladi%NULL%1,                      Zeinab%Mohseni Afshar%NULL%1,                      Feizollah%Mansouri%NULL%1,                      Zohreh%Rahimi%NULL%1,                      Maria%Shirvani%NULL%1,                      Mehdi%Salimi%NULL%1,                      Siavash%Vaziri%NULL%1,                      Alireza%Janbakhsh%NULL%1,                      Fatemeh%Khosravi Shadmani%NULL%1,                      Arezoo%Bozorgomid%NULL%1,                      Mohammad Hossein%Zamanian%NULL%1,                      Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,                      Ali%Ali Asgari%NULL%2,                      Ali%Ali Asgari%NULL%0,                      Alireza%Norouzi%NULL%1,                      Zahedin%Kheiri%NULL%1,                      Amir%Anushirvani%NULL%1,                      Mahnaz%Montazeri%NULL%1,                      Hadiseh%Hosamirudsai%NULL%1,                      Shirin%Afhami%NULL%1,                      Elham%Akbarpour%NULL%1,                      Rasoul%Aliannejad%NULL%2,                      Rasoul%Aliannejad%NULL%0,                      Amir Reza%Radmard%NULL%1,                      Amir H%Davarpanah%NULL%1,                      Jacob%Levi%NULL%0,                      Hannah%Wentzel%NULL%0,                      Ambar%Qavi%NULL%1,                      Anna%Garratt%NULL%0,                      Bryony%Simmons%NULL%0,                      Andrew%Hill%NULL%0,                      Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,                      Ehab%Kamal%NULL%2,                      Ehab%Kamal%NULL%0,                      Mohsen%Salama%NULL%2,                      Mohsen%Salama%NULL%0,                      Tary%Salman%NULL%1,                      Alyaa%Sabry%NULL%1,                      Wael%Abdel‐Razek%NULL%1,                      Sherine%Helmy%NULL%1,                      Ahmed%Abdelgwad%NULL%1,                      Neamt%Sakr%NULL%1,                      Mohamed%Elgazzar%NULL%1,                      Mohamed%Einar%NULL%1,                      Mahmoud%Farouk%NULL%1,                      Mounir%Saif%NULL%1,                      Ismail%Shehab%NULL%1,                      Eman%El‐hosieny%NULL%1,                      Mai%Mansour%NULL%1,                      Doaa%Mahdi%NULL%1,                      El‐Sayed%Tharwa%NULL%1,                      Mostafa%Salah%NULL%1,                      Ola%Elrouby%NULL%1,                      Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,                       Siavash%Moradi%NULL%1,                       Amir Mohammad%Shabani%NULL%1,                       Farhang%Babamahmoodi%NULL%2,                       Farhang%Babamahmoodi%NULL%0,                       Ali Reza%Davoudi Badabi%NULL%1,                       Lotfollah%Davoudi%NULL%1,                       Ahmad%Alikhani%NULL%1,                       Akbar%Hedayatizadeh Omran%NULL%1,                       Majid%Saeedi%NULL%2,                       Shahin%Merat%NULL%3,                       Hannah%Wentzel%NULL%6,                       Hannah%Wentzel%NULL%0,                       Anna%Garratt%NULL%2,                       Jacob%Levi%NULL%3,                       Bryony%Simmons%NULL%3,                       Andrew%Hill%NULL%4,                       Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,                       Sajedeh%Mousaviasl%NULL%1,                       Esmat%Radmanesh%NULL%1,                       Saeed%Jelvay%NULL%1,                       Saeid%Bitaraf%NULL%1,                       Bryony%Simmons%NULL%0,                       Hannah%Wentzel%NULL%0,                       Andrew%Hill%NULL%0,                       Anahita%Sadeghi%NULL%1,                       James%Freeman%NULL%1,                       Shokrollah%Salmanzadeh%NULL%1,                       Hani%Esmaeilian%NULL%1,                       Morteza%Mobarak%NULL%1,                       Ramin%Tabibi%NULL%1,                       Amir Hosein%Jafari Kashi%NULL%1,                       Zahra%Lotfi%NULL%1,                       Seyed Mehdi%Talebzadeh%NULL%1,                       Aseni%Wickramatillake%NULL%1,                       Mahboobeh%Momtazan%NULL%1,                       Majid%Hajizadeh Farsani%NULL%1,                       Sedigheh%Marjani%NULL%1,                       Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,                       Majid%Saeedi%NULL%0,                       Reza%Alizadeh-Navaei%NULL%1,                       Akbar%Hedayatizadeh-Omran%NULL%1,                       Shahin%Merat%NULL%0,                       Hannah%Wentzel%NULL%0,                       Hannah%Wentzel%NULL%0,                       Jacob%Levi%NULL%0,                       Andrew%Hill%NULL%0,                       Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,                       Hossein%Khalili%NULL%1,                       Zahra%Ahmadinejad%NULL%1,                       Hamid%Emadi Kouchak%NULL%1,                       Sirous%Jafari%NULL%1,                       Sayed Ali%Dehghan Manshadi%NULL%1,                       Mehrnaz%Rasolinejad%NULL%1,                       Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,                       Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,                       Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,                       Farid%Najafi%NULL%1,                       Ronak%Miladi%NULL%1,                       Zeinab%Mohseni Afshar%NULL%1,                       Feizollah%Mansouri%NULL%1,                       Zohreh%Rahimi%NULL%1,                       Maria%Shirvani%NULL%1,                       Mehdi%Salimi%NULL%1,                       Siavash%Vaziri%NULL%1,                       Alireza%Janbakhsh%NULL%1,                       Fatemeh%Khosravi Shadmani%NULL%1,                       Arezoo%Bozorgomid%NULL%1,                       Mohammad Hossein%Zamanian%NULL%1,                       Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,                       Ali%Ali Asgari%NULL%2,                       Ali%Ali Asgari%NULL%0,                       Alireza%Norouzi%NULL%1,                       Zahedin%Kheiri%NULL%1,                       Amir%Anushirvani%NULL%1,                       Mahnaz%Montazeri%NULL%1,                       Hadiseh%Hosamirudsai%NULL%1,                       Shirin%Afhami%NULL%1,                       Elham%Akbarpour%NULL%1,                       Rasoul%Aliannejad%NULL%2,                       Rasoul%Aliannejad%NULL%0,                       Amir Reza%Radmard%NULL%1,                       Amir H%Davarpanah%NULL%1,                       Jacob%Levi%NULL%0,                       Hannah%Wentzel%NULL%0,                       Ambar%Qavi%NULL%1,                       Anna%Garratt%NULL%0,                       Bryony%Simmons%NULL%0,                       Andrew%Hill%NULL%0,                       Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,                       Ehab%Kamal%NULL%2,                       Ehab%Kamal%NULL%0,                       Mohsen%Salama%NULL%2,                       Mohsen%Salama%NULL%0,                       Tary%Salman%NULL%1,                       Alyaa%Sabry%NULL%1,                       Wael%Abdel‐Razek%NULL%1,                       Sherine%Helmy%NULL%1,                       Ahmed%Abdelgwad%NULL%1,                       Neamt%Sakr%NULL%1,                       Mohamed%Elgazzar%NULL%1,                       Mohamed%Einar%NULL%1,                       Mahmoud%Farouk%NULL%1,                       Mounir%Saif%NULL%1,                       Ismail%Shehab%NULL%1,                       Eman%El‐hosieny%NULL%1,                       Mai%Mansour%NULL%1,                       Doaa%Mahdi%NULL%1,                       El‐Sayed%Tharwa%NULL%1,                       Mostafa%Salah%NULL%1,                       Ola%Elrouby%NULL%1,                       Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,                        Siavash%Moradi%NULL%1,                        Amir Mohammad%Shabani%NULL%1,                        Farhang%Babamahmoodi%NULL%2,                        Farhang%Babamahmoodi%NULL%0,                        Ali Reza%Davoudi Badabi%NULL%1,                        Lotfollah%Davoudi%NULL%1,                        Ahmad%Alikhani%NULL%1,                        Akbar%Hedayatizadeh Omran%NULL%1,                        Majid%Saeedi%NULL%2,                        Shahin%Merat%NULL%3,                        Hannah%Wentzel%NULL%6,                        Hannah%Wentzel%NULL%0,                        Anna%Garratt%NULL%2,                        Jacob%Levi%NULL%3,                        Bryony%Simmons%NULL%3,                        Andrew%Hill%NULL%4,                        Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,                        Sajedeh%Mousaviasl%NULL%1,                        Esmat%Radmanesh%NULL%1,                        Saeed%Jelvay%NULL%1,                        Saeid%Bitaraf%NULL%1,                        Bryony%Simmons%NULL%0,                        Hannah%Wentzel%NULL%0,                        Andrew%Hill%NULL%0,                        Anahita%Sadeghi%NULL%1,                        James%Freeman%NULL%1,                        Shokrollah%Salmanzadeh%NULL%1,                        Hani%Esmaeilian%NULL%1,                        Morteza%Mobarak%NULL%1,                        Ramin%Tabibi%NULL%1,                        Amir Hosein%Jafari Kashi%NULL%1,                        Zahra%Lotfi%NULL%1,                        Seyed Mehdi%Talebzadeh%NULL%1,                        Aseni%Wickramatillake%NULL%1,                        Mahboobeh%Momtazan%NULL%1,                        Majid%Hajizadeh Farsani%NULL%1,                        Sedigheh%Marjani%NULL%1,                        Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,                        Majid%Saeedi%NULL%0,                        Reza%Alizadeh-Navaei%NULL%1,                        Akbar%Hedayatizadeh-Omran%NULL%1,                        Shahin%Merat%NULL%0,                        Hannah%Wentzel%NULL%0,                        Hannah%Wentzel%NULL%0,                        Jacob%Levi%NULL%0,                        Andrew%Hill%NULL%0,                        Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,                        Hossein%Khalili%NULL%1,                        Zahra%Ahmadinejad%NULL%1,                        Hamid%Emadi Kouchak%NULL%1,                        Sirous%Jafari%NULL%1,                        Sayed Ali%Dehghan Manshadi%NULL%1,                        Mehrnaz%Rasolinejad%NULL%1,                        Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,                        Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,                        Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,                        Farid%Najafi%NULL%1,                        Ronak%Miladi%NULL%1,                        Zeinab%Mohseni Afshar%NULL%1,                        Feizollah%Mansouri%NULL%1,                        Zohreh%Rahimi%NULL%1,                        Maria%Shirvani%NULL%1,                        Mehdi%Salimi%NULL%1,                        Siavash%Vaziri%NULL%1,                        Alireza%Janbakhsh%NULL%1,                        Fatemeh%Khosravi Shadmani%NULL%1,                        Arezoo%Bozorgomid%NULL%1,                        Mohammad Hossein%Zamanian%NULL%1,                        Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,                        Ali%Ali Asgari%NULL%2,                        Ali%Ali Asgari%NULL%0,                        Alireza%Norouzi%NULL%1,                        Zahedin%Kheiri%NULL%1,                        Amir%Anushirvani%NULL%1,                        Mahnaz%Montazeri%NULL%1,                        Hadiseh%Hosamirudsai%NULL%1,                        Shirin%Afhami%NULL%1,                        Elham%Akbarpour%NULL%1,                        Rasoul%Aliannejad%NULL%2,                        Rasoul%Aliannejad%NULL%0,                        Amir Reza%Radmard%NULL%1,                        Amir H%Davarpanah%NULL%1,                        Jacob%Levi%NULL%0,                        Hannah%Wentzel%NULL%0,                        Ambar%Qavi%NULL%1,                        Anna%Garratt%NULL%0,                        Bryony%Simmons%NULL%0,                        Andrew%Hill%NULL%0,                        Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,                        Ehab%Kamal%NULL%2,                        Ehab%Kamal%NULL%0,                        Mohsen%Salama%NULL%2,                        Mohsen%Salama%NULL%0,                        Tary%Salman%NULL%1,                        Alyaa%Sabry%NULL%1,                        Wael%Abdel‐Razek%NULL%1,                        Sherine%Helmy%NULL%1,                        Ahmed%Abdelgwad%NULL%1,                        Neamt%Sakr%NULL%1,                        Mohamed%Elgazzar%NULL%1,                        Mohamed%Einar%NULL%1,                        Mahmoud%Farouk%NULL%1,                        Mounir%Saif%NULL%1,                        Ismail%Shehab%NULL%1,                        Eman%El‐hosieny%NULL%1,                        Mai%Mansour%NULL%1,                        Doaa%Mahdi%NULL%1,                        El‐Sayed%Tharwa%NULL%1,                        Mostafa%Salah%NULL%1,                        Ola%Elrouby%NULL%1,                        Imam%Waked%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1082,6 +1196,9 @@
       <c r="I1" t="s">
         <v>56</v>
       </c>
+      <c r="J1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1097,7 +1214,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1110,6 +1227,9 @@
       </c>
       <c r="I2" t="s">
         <v>186</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -1126,7 +1246,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1138,7 +1258,10 @@
         <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>188</v>
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="4">
@@ -1155,7 +1278,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1168,6 +1291,9 @@
       </c>
       <c r="I4" t="s">
         <v>186</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -1184,7 +1310,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1197,6 +1323,9 @@
       </c>
       <c r="I5" t="s">
         <v>186</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -1213,7 +1342,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1226,6 +1355,9 @@
       </c>
       <c r="I6" t="s">
         <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -1242,7 +1374,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1255,6 +1387,9 @@
       </c>
       <c r="I7" t="s">
         <v>186</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1271,7 +1406,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1284,6 +1419,9 @@
       </c>
       <c r="I8" t="s">
         <v>186</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1438,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
@@ -1313,6 +1451,9 @@
       </c>
       <c r="I9" t="s">
         <v>186</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/17.xlsx
+++ b/Covid_19_Dataset_and_References/References/17.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="255">
   <si>
     <t>Doi</t>
   </si>
@@ -862,6 +862,48 @@
   </si>
   <si>
     <t>[Sherif%Abbass%sherif533@hotmail.com%1,                        Ehab%Kamal%NULL%2,                        Ehab%Kamal%NULL%0,                        Mohsen%Salama%NULL%2,                        Mohsen%Salama%NULL%0,                        Tary%Salman%NULL%1,                        Alyaa%Sabry%NULL%1,                        Wael%Abdel‐Razek%NULL%1,                        Sherine%Helmy%NULL%1,                        Ahmed%Abdelgwad%NULL%1,                        Neamt%Sakr%NULL%1,                        Mohamed%Elgazzar%NULL%1,                        Mohamed%Einar%NULL%1,                        Mahmoud%Farouk%NULL%1,                        Mounir%Saif%NULL%1,                        Ismail%Shehab%NULL%1,                        Eman%El‐hosieny%NULL%1,                        Mai%Mansour%NULL%1,                        Doaa%Mahdi%NULL%1,                        El‐Sayed%Tharwa%NULL%1,                        Mostafa%Salah%NULL%1,                        Ola%Elrouby%NULL%1,                        Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,                         Siavash%Moradi%NULL%1,                         Amir Mohammad%Shabani%NULL%1,                         Farhang%Babamahmoodi%NULL%2,                         Farhang%Babamahmoodi%NULL%0,                         Ali Reza%Davoudi Badabi%NULL%1,                         Lotfollah%Davoudi%NULL%1,                         Ahmad%Alikhani%NULL%1,                         Akbar%Hedayatizadeh Omran%NULL%1,                         Majid%Saeedi%NULL%2,                         Shahin%Merat%NULL%3,                         Hannah%Wentzel%NULL%6,                         Hannah%Wentzel%NULL%0,                         Anna%Garratt%NULL%2,                         Jacob%Levi%NULL%3,                         Bryony%Simmons%NULL%3,                         Andrew%Hill%NULL%4,                         Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,                         Sajedeh%Mousaviasl%NULL%1,                         Esmat%Radmanesh%NULL%1,                         Saeed%Jelvay%NULL%1,                         Saeid%Bitaraf%NULL%1,                         Bryony%Simmons%NULL%0,                         Hannah%Wentzel%NULL%0,                         Andrew%Hill%NULL%0,                         Anahita%Sadeghi%NULL%1,                         James%Freeman%NULL%1,                         Shokrollah%Salmanzadeh%NULL%1,                         Hani%Esmaeilian%NULL%1,                         Morteza%Mobarak%NULL%1,                         Ramin%Tabibi%NULL%1,                         Amir Hosein%Jafari Kashi%NULL%1,                         Zahra%Lotfi%NULL%1,                         Seyed Mehdi%Talebzadeh%NULL%1,                         Aseni%Wickramatillake%NULL%1,                         Mahboobeh%Momtazan%NULL%1,                         Majid%Hajizadeh Farsani%NULL%1,                         Sedigheh%Marjani%NULL%1,                         Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,                         Majid%Saeedi%NULL%0,                         Reza%Alizadeh-Navaei%NULL%1,                         Akbar%Hedayatizadeh-Omran%NULL%1,                         Shahin%Merat%NULL%0,                         Hannah%Wentzel%NULL%0,                         Hannah%Wentzel%NULL%0,                         Jacob%Levi%NULL%0,                         Andrew%Hill%NULL%0,                         Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,                         Hossein%Khalili%NULL%1,                         Zahra%Ahmadinejad%NULL%1,                         Hamid%Emadi Kouchak%NULL%1,                         Sirous%Jafari%NULL%1,                         Sayed Ali%Dehghan Manshadi%NULL%1,                         Mehrnaz%Rasolinejad%NULL%1,                         Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,                         Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,                         Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,                         Farid%Najafi%NULL%1,                         Ronak%Miladi%NULL%1,                         Zeinab%Mohseni Afshar%NULL%1,                         Feizollah%Mansouri%NULL%1,                         Zohreh%Rahimi%NULL%1,                         Maria%Shirvani%NULL%1,                         Mehdi%Salimi%NULL%1,                         Siavash%Vaziri%NULL%1,                         Alireza%Janbakhsh%NULL%1,                         Fatemeh%Khosravi Shadmani%NULL%1,                         Arezoo%Bozorgomid%NULL%1,                         Mohammad Hossein%Zamanian%NULL%1,                         Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,                         Ali%Ali Asgari%NULL%2,                         Ali%Ali Asgari%NULL%0,                         Alireza%Norouzi%NULL%1,                         Zahedin%Kheiri%NULL%1,                         Amir%Anushirvani%NULL%1,                         Mahnaz%Montazeri%NULL%1,                         Hadiseh%Hosamirudsai%NULL%1,                         Shirin%Afhami%NULL%1,                         Elham%Akbarpour%NULL%1,                         Rasoul%Aliannejad%NULL%2,                         Rasoul%Aliannejad%NULL%0,                         Amir Reza%Radmard%NULL%1,                         Amir H%Davarpanah%NULL%1,                         Jacob%Levi%NULL%0,                         Hannah%Wentzel%NULL%0,                         Ambar%Qavi%NULL%1,                         Anna%Garratt%NULL%0,                         Bryony%Simmons%NULL%0,                         Andrew%Hill%NULL%0,                         Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,                         Ehab%Kamal%NULL%2,                         Ehab%Kamal%NULL%0,                         Mohsen%Salama%NULL%2,                         Mohsen%Salama%NULL%0,                         Tary%Salman%NULL%1,                         Alyaa%Sabry%NULL%1,                         Wael%Abdel‐Razek%NULL%1,                         Sherine%Helmy%NULL%1,                         Ahmed%Abdelgwad%NULL%1,                         Neamt%Sakr%NULL%1,                         Mohamed%Elgazzar%NULL%1,                         Mohamed%Einar%NULL%1,                         Mahmoud%Farouk%NULL%1,                         Mounir%Saif%NULL%1,                         Ismail%Shehab%NULL%1,                         Eman%El‐hosieny%NULL%1,                         Mai%Mansour%NULL%1,                         Doaa%Mahdi%NULL%1,                         El‐Sayed%Tharwa%NULL%1,                         Mostafa%Salah%NULL%1,                         Ola%Elrouby%NULL%1,                         Imam%Waked%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hamideh%Abbaspour Kasgari%NULL%1,                          Siavash%Moradi%NULL%1,                          Amir Mohammad%Shabani%NULL%1,                          Farhang%Babamahmoodi%NULL%2,                          Farhang%Babamahmoodi%NULL%0,                          Ali Reza%Davoudi Badabi%NULL%1,                          Lotfollah%Davoudi%NULL%1,                          Ahmad%Alikhani%NULL%1,                          Akbar%Hedayatizadeh Omran%NULL%1,                          Majid%Saeedi%NULL%2,                          Shahin%Merat%NULL%3,                          Hannah%Wentzel%NULL%6,                          Hannah%Wentzel%NULL%0,                          Anna%Garratt%NULL%2,                          Jacob%Levi%NULL%3,                          Bryony%Simmons%NULL%3,                          Andrew%Hill%NULL%4,                          Hafez%Tirgar Fakheri%hafezfakheri@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Gholamali%Eslami%NULL%1,                          Sajedeh%Mousaviasl%NULL%1,                          Esmat%Radmanesh%NULL%1,                          Saeed%Jelvay%NULL%1,                          Saeid%Bitaraf%NULL%1,                          Bryony%Simmons%NULL%0,                          Hannah%Wentzel%NULL%0,                          Andrew%Hill%NULL%0,                          Anahita%Sadeghi%NULL%1,                          James%Freeman%NULL%1,                          Shokrollah%Salmanzadeh%NULL%1,                          Hani%Esmaeilian%NULL%1,                          Morteza%Mobarak%NULL%1,                          Ramin%Tabibi%NULL%1,                          Amir Hosein%Jafari Kashi%NULL%1,                          Zahra%Lotfi%NULL%1,                          Seyed Mehdi%Talebzadeh%NULL%1,                          Aseni%Wickramatillake%NULL%1,                          Mahboobeh%Momtazan%NULL%1,                          Majid%Hajizadeh Farsani%NULL%1,                          Sedigheh%Marjani%NULL%1,                          Sara%Mobarak%s.mobarak@abadanums.ac.ir%1]</t>
+  </si>
+  <si>
+    <t>[Fatemeh%Roozbeh%NULL%1,                          Majid%Saeedi%NULL%0,                          Reza%Alizadeh-Navaei%NULL%1,                          Akbar%Hedayatizadeh-Omran%NULL%1,                          Shahin%Merat%NULL%0,                          Hannah%Wentzel%NULL%0,                          Hannah%Wentzel%NULL%0,                          Jacob%Levi%NULL%0,                          Andrew%Hill%NULL%0,                          Amir%Shamshirian%shamshirian.amir@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Anahid%Nourian%NULL%1,                          Hossein%Khalili%NULL%1,                          Zahra%Ahmadinejad%NULL%1,                          Hamid%Emadi Kouchak%NULL%1,                          Sirous%Jafari%NULL%1,                          Sayed Ali%Dehghan Manshadi%NULL%1,                          Mehrnaz%Rasolinejad%NULL%1,                          Abbas%Kebriaeezadeh%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Babak%Sayad%NULL%1,                          Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%2,                          Reza%Khodarahmi%rkhodarahmi@mbrc.ac.ir%0,                          Farid%Najafi%NULL%1,                          Ronak%Miladi%NULL%1,                          Zeinab%Mohseni Afshar%NULL%1,                          Feizollah%Mansouri%NULL%1,                          Zohreh%Rahimi%NULL%1,                          Maria%Shirvani%NULL%1,                          Mehdi%Salimi%NULL%1,                          Siavash%Vaziri%NULL%1,                          Alireza%Janbakhsh%NULL%1,                          Fatemeh%Khosravi Shadmani%NULL%1,                          Arezoo%Bozorgomid%NULL%1,                          Mohammad Hossein%Zamanian%NULL%1,                          Mandana%Afsharian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Anahita%Sadeghi%NULL%1,                          Ali%Ali Asgari%NULL%2,                          Ali%Ali Asgari%NULL%0,                          Alireza%Norouzi%NULL%1,                          Zahedin%Kheiri%NULL%1,                          Amir%Anushirvani%NULL%1,                          Mahnaz%Montazeri%NULL%1,                          Hadiseh%Hosamirudsai%NULL%1,                          Shirin%Afhami%NULL%1,                          Elham%Akbarpour%NULL%1,                          Rasoul%Aliannejad%NULL%2,                          Rasoul%Aliannejad%NULL%0,                          Amir Reza%Radmard%NULL%1,                          Amir H%Davarpanah%NULL%1,                          Jacob%Levi%NULL%0,                          Hannah%Wentzel%NULL%0,                          Ambar%Qavi%NULL%1,                          Anna%Garratt%NULL%0,                          Bryony%Simmons%NULL%0,                          Andrew%Hill%NULL%0,                          Shahin%Merat%merat@tums.ac.ir%0]</t>
+  </si>
+  <si>
+    <t>[Sherif%Abbass%sherif533@hotmail.com%1,                          Ehab%Kamal%NULL%2,                          Ehab%Kamal%NULL%0,                          Mohsen%Salama%NULL%2,                          Mohsen%Salama%NULL%0,                          Tary%Salman%NULL%1,                          Alyaa%Sabry%NULL%1,                          Wael%Abdel‐Razek%NULL%1,                          Sherine%Helmy%NULL%1,                          Ahmed%Abdelgwad%NULL%1,                          Neamt%Sakr%NULL%1,                          Mohamed%Elgazzar%NULL%1,                          Mohamed%Einar%NULL%1,                          Mahmoud%Farouk%NULL%1,                          Mounir%Saif%NULL%1,                          Ismail%Shehab%NULL%1,                          Eman%El‐hosieny%NULL%1,                          Mai%Mansour%NULL%1,                          Doaa%Mahdi%NULL%1,                          El‐Sayed%Tharwa%NULL%1,                          Mostafa%Salah%NULL%1,                          Ola%Elrouby%NULL%1,                          Imam%Waked%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1256,7 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
@@ -1246,7 +1288,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1278,7 +1320,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1310,7 +1352,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
@@ -1342,7 +1384,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -1374,7 +1416,7 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
         <v>45</v>
@@ -1406,7 +1448,7 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -1438,7 +1480,7 @@
         <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
         <v>54</v>
